--- a/analysis/data/raw_data/Species Comp ALL.xlsx
+++ b/analysis/data/raw_data/Species Comp ALL.xlsx
@@ -8,17 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stateofwa-my.sharepoint.com/personal/bethany_craig_dfw_wa_gov/Documents/1. Puget Sound Steelhead/2. SONAR/Dungeness/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="8_{218D2B7C-28C1-430D-9535-5B68AECA2AD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F376E9B-20EF-44D7-A6B5-4DB74E07D7D1}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="8_{218D2B7C-28C1-430D-9535-5B68AECA2AD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8FF32141-F1E5-4A80-ABAC-764982E668F4}"/>
   <bookViews>
-    <workbookView xWindow="2055" yWindow="540" windowWidth="26505" windowHeight="14685" xr2:uid="{75F463E3-CEC9-44BB-90FE-1DABF7463E55}"/>
+    <workbookView xWindow="4950" yWindow="1065" windowWidth="22665" windowHeight="12660" activeTab="4" xr2:uid="{75F463E3-CEC9-44BB-90FE-1DABF7463E55}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary Species Comp" sheetId="6" r:id="rId1"/>
     <sheet name="Summary H&amp;L" sheetId="7" r:id="rId2"/>
     <sheet name="Summary STHD HORs" sheetId="5" r:id="rId3"/>
     <sheet name="2021" sheetId="2" r:id="rId4"/>
-    <sheet name="2020" sheetId="1" r:id="rId5"/>
-    <sheet name="2019" sheetId="3" r:id="rId6"/>
+    <sheet name="2021 lengths" sheetId="8" r:id="rId5"/>
+    <sheet name="2020" sheetId="1" r:id="rId6"/>
+    <sheet name="2020 lengths" sheetId="9" r:id="rId7"/>
+    <sheet name="2019" sheetId="3" r:id="rId8"/>
+    <sheet name="2019 lengths" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1963" uniqueCount="200">
   <si>
     <t xml:space="preserve">Species Composition </t>
   </si>
@@ -480,6 +483,165 @@
   </si>
   <si>
     <t>June 10 = Day of Year 161 in 2019</t>
+  </si>
+  <si>
+    <t>StreamName</t>
+  </si>
+  <si>
+    <t>SurveyDate</t>
+  </si>
+  <si>
+    <t>DataSource</t>
+  </si>
+  <si>
+    <t>SurveyType</t>
+  </si>
+  <si>
+    <t>RMUpper</t>
+  </si>
+  <si>
+    <t>RMLower</t>
+  </si>
+  <si>
+    <t>RunYear</t>
+  </si>
+  <si>
+    <t>Fish Type</t>
+  </si>
+  <si>
+    <t>ForkLength</t>
+  </si>
+  <si>
+    <t>POH</t>
+  </si>
+  <si>
+    <t>Sex</t>
+  </si>
+  <si>
+    <t>Mark</t>
+  </si>
+  <si>
+    <t>Tag</t>
+  </si>
+  <si>
+    <t>Origin</t>
+  </si>
+  <si>
+    <t>ScaleAge</t>
+  </si>
+  <si>
+    <t>BroodYear</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Dungeness River</t>
+  </si>
+  <si>
+    <t>WDFW</t>
+  </si>
+  <si>
+    <t>Species Comp Gill Net</t>
+  </si>
+  <si>
+    <t>Live</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>Unmarked</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>R.1+</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>bright</t>
+  </si>
+  <si>
+    <t>R.2+</t>
+  </si>
+  <si>
+    <t>Jamestown S'Klallam Tribe</t>
+  </si>
+  <si>
+    <t>Hook &amp; Line</t>
+  </si>
+  <si>
+    <t>2.1+S+</t>
+  </si>
+  <si>
+    <t>W1.2+</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>2.1+</t>
+  </si>
+  <si>
+    <t>Gray Wolf River</t>
+  </si>
+  <si>
+    <t>Resident rainbow</t>
+  </si>
+  <si>
+    <t>4.0</t>
+  </si>
+  <si>
+    <t>Resident</t>
+  </si>
+  <si>
+    <t>Marked</t>
+  </si>
+  <si>
+    <t>1.1+</t>
+  </si>
+  <si>
+    <t>2.2+</t>
+  </si>
+  <si>
+    <t>3.+</t>
+  </si>
+  <si>
+    <t>3.1+</t>
+  </si>
+  <si>
+    <t>R.1+S+</t>
+  </si>
+  <si>
+    <t>Kelt</t>
+  </si>
+  <si>
+    <t>Species Comp Hook &amp; Line</t>
+  </si>
+  <si>
+    <t>Resident? Seems so small for a steelhead, and no scales to confirm</t>
+  </si>
+  <si>
+    <t>Hatchery per scale</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R </t>
+  </si>
+  <si>
+    <t>Spawning ground survey</t>
+  </si>
+  <si>
+    <t>Carcass</t>
   </si>
 </sst>
 </file>
@@ -490,7 +652,7 @@
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -520,8 +682,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -555,6 +724,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -740,7 +915,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -904,14 +1079,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1229,8 +1441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F6483A5-2C03-4982-B464-AC208EAF36C0}">
   <dimension ref="A1:W40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1264,23 +1476,23 @@
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73" t="s">
+      <c r="C3" s="71"/>
+      <c r="D3" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="73"/>
+      <c r="E3" s="71"/>
       <c r="K3" s="24"/>
-      <c r="L3" s="73" t="s">
+      <c r="L3" s="71" t="s">
         <v>99</v>
       </c>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73" t="s">
+      <c r="M3" s="71"/>
+      <c r="N3" s="71" t="s">
         <v>100</v>
       </c>
-      <c r="O3" s="73"/>
+      <c r="O3" s="71"/>
       <c r="P3" s="38"/>
       <c r="Q3" s="1" t="s">
         <v>29</v>
@@ -1965,14 +2177,14 @@
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B28" s="73" t="s">
+      <c r="B28" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="73"/>
-      <c r="D28" s="73" t="s">
+      <c r="C28" s="71"/>
+      <c r="D28" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="E28" s="73"/>
+      <c r="E28" s="71"/>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
@@ -2158,12 +2370,12 @@
       <c r="A3" s="1">
         <v>2021</v>
       </c>
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
       <c r="F3" s="47"/>
       <c r="G3" s="44"/>
       <c r="H3" s="44"/>
@@ -2622,12 +2834,12 @@
       <c r="A19" s="1">
         <v>2020</v>
       </c>
-      <c r="B19" s="73" t="s">
+      <c r="B19" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="73"/>
-      <c r="D19" s="73"/>
-      <c r="E19" s="73"/>
+      <c r="C19" s="71"/>
+      <c r="D19" s="71"/>
+      <c r="E19" s="71"/>
       <c r="F19" s="47"/>
       <c r="G19" s="50"/>
       <c r="H19" s="50"/>
@@ -3989,38 +4201,38 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
-      <c r="B3" s="71">
+      <c r="B3" s="72">
         <v>2014</v>
       </c>
-      <c r="C3" s="72"/>
-      <c r="D3" s="71">
+      <c r="C3" s="73"/>
+      <c r="D3" s="72">
         <v>2015</v>
       </c>
-      <c r="E3" s="72"/>
-      <c r="F3" s="71">
+      <c r="E3" s="73"/>
+      <c r="F3" s="72">
         <v>2016</v>
       </c>
-      <c r="G3" s="72"/>
-      <c r="H3" s="71">
+      <c r="G3" s="73"/>
+      <c r="H3" s="72">
         <v>2017</v>
       </c>
-      <c r="I3" s="72"/>
-      <c r="J3" s="71">
+      <c r="I3" s="73"/>
+      <c r="J3" s="72">
         <v>2018</v>
       </c>
-      <c r="K3" s="72"/>
-      <c r="L3" s="71">
+      <c r="K3" s="73"/>
+      <c r="L3" s="72">
         <v>2019</v>
       </c>
-      <c r="M3" s="72"/>
-      <c r="N3" s="71">
+      <c r="M3" s="73"/>
+      <c r="N3" s="72">
         <v>2020</v>
       </c>
-      <c r="O3" s="72"/>
-      <c r="P3" s="71">
+      <c r="O3" s="73"/>
+      <c r="P3" s="72">
         <v>2021</v>
       </c>
-      <c r="Q3" s="72"/>
+      <c r="Q3" s="73"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -4609,14 +4821,14 @@
       <c r="C18" s="44"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B19" s="73" t="s">
+      <c r="B19" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="73"/>
-      <c r="E19" s="73" t="s">
+      <c r="C19" s="71"/>
+      <c r="E19" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="F19" s="73"/>
+      <c r="F19" s="71"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
@@ -4989,38 +5201,38 @@
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B40" s="71">
+      <c r="B40" s="72">
         <v>2014</v>
       </c>
-      <c r="C40" s="72"/>
-      <c r="D40" s="71">
+      <c r="C40" s="73"/>
+      <c r="D40" s="72">
         <v>2015</v>
       </c>
-      <c r="E40" s="72"/>
-      <c r="F40" s="71">
+      <c r="E40" s="73"/>
+      <c r="F40" s="72">
         <v>2016</v>
       </c>
-      <c r="G40" s="72"/>
-      <c r="H40" s="71">
+      <c r="G40" s="73"/>
+      <c r="H40" s="72">
         <v>2017</v>
       </c>
-      <c r="I40" s="72"/>
-      <c r="J40" s="71">
+      <c r="I40" s="73"/>
+      <c r="J40" s="72">
         <v>2018</v>
       </c>
-      <c r="K40" s="72"/>
-      <c r="L40" s="71">
+      <c r="K40" s="73"/>
+      <c r="L40" s="72">
         <v>2019</v>
       </c>
-      <c r="M40" s="72"/>
-      <c r="N40" s="71">
+      <c r="M40" s="73"/>
+      <c r="N40" s="72">
         <v>2020</v>
       </c>
-      <c r="O40" s="72"/>
-      <c r="P40" s="71">
+      <c r="O40" s="73"/>
+      <c r="P40" s="72">
         <v>2021</v>
       </c>
-      <c r="Q40" s="72"/>
+      <c r="Q40" s="73"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B41" s="4" t="s">
@@ -5166,11 +5378,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="F3:G3"/>
     <mergeCell ref="P40:Q40"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="E19:F19"/>
@@ -5184,6 +5391,11 @@
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:E3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="F3:G3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -5198,7 +5410,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="L40" sqref="L40"/>
+      <selection pane="bottomRight" activeCell="AB3" sqref="AB3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6511,6 +6723,3971 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19C8499E-BFD8-48B2-80F2-A40D4F579E2E}">
+  <dimension ref="A1:T72"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I15" sqref="I15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G1" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="H1" s="49" t="s">
+        <v>152</v>
+      </c>
+      <c r="I1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J1" s="49" t="s">
+        <v>153</v>
+      </c>
+      <c r="K1" t="s">
+        <v>154</v>
+      </c>
+      <c r="L1" s="49" t="s">
+        <v>155</v>
+      </c>
+      <c r="M1" s="49" t="s">
+        <v>156</v>
+      </c>
+      <c r="N1" t="s">
+        <v>157</v>
+      </c>
+      <c r="O1" t="s">
+        <v>158</v>
+      </c>
+      <c r="P1" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>160</v>
+      </c>
+      <c r="R1" t="s">
+        <v>161</v>
+      </c>
+      <c r="S1" t="s">
+        <v>162</v>
+      </c>
+      <c r="T1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B2" s="74">
+        <v>44230</v>
+      </c>
+      <c r="C2" s="25">
+        <v>2021</v>
+      </c>
+      <c r="D2" s="75">
+        <v>2</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="I2" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="49">
+        <v>2021</v>
+      </c>
+      <c r="K2" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L2" s="76">
+        <v>66</v>
+      </c>
+      <c r="M2" s="76">
+        <v>56</v>
+      </c>
+      <c r="N2" t="s">
+        <v>168</v>
+      </c>
+      <c r="O2" t="s">
+        <v>169</v>
+      </c>
+      <c r="P2" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q2" s="25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B3" s="74">
+        <v>44230</v>
+      </c>
+      <c r="C3" s="25">
+        <v>2021</v>
+      </c>
+      <c r="D3" s="75">
+        <v>2</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="I3" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="49">
+        <v>2021</v>
+      </c>
+      <c r="K3" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L3" s="76">
+        <v>40</v>
+      </c>
+      <c r="M3" s="76">
+        <v>33</v>
+      </c>
+      <c r="N3" t="s">
+        <v>168</v>
+      </c>
+      <c r="O3" t="s">
+        <v>169</v>
+      </c>
+      <c r="P3" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q3" s="25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B4" s="74">
+        <v>44230</v>
+      </c>
+      <c r="C4" s="25">
+        <v>2021</v>
+      </c>
+      <c r="D4" s="75">
+        <v>2</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="I4" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" s="49">
+        <v>2021</v>
+      </c>
+      <c r="K4" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L4" s="76">
+        <v>29.5</v>
+      </c>
+      <c r="M4" s="76">
+        <v>24</v>
+      </c>
+      <c r="N4" t="s">
+        <v>168</v>
+      </c>
+      <c r="O4" t="s">
+        <v>169</v>
+      </c>
+      <c r="P4" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q4" s="25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B5" s="74">
+        <v>44244</v>
+      </c>
+      <c r="C5" s="25">
+        <v>2021</v>
+      </c>
+      <c r="D5" s="75">
+        <v>2</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="F5" t="s">
+        <v>166</v>
+      </c>
+      <c r="I5" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" s="49">
+        <v>2021</v>
+      </c>
+      <c r="K5" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L5" s="49">
+        <v>58</v>
+      </c>
+      <c r="M5" s="49">
+        <v>47.5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>171</v>
+      </c>
+      <c r="O5" t="s">
+        <v>169</v>
+      </c>
+      <c r="P5" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q5" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="R5" t="s">
+        <v>172</v>
+      </c>
+      <c r="S5" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="T5" s="25" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>164</v>
+      </c>
+      <c r="B6" s="74">
+        <v>44244</v>
+      </c>
+      <c r="C6" s="25">
+        <v>2021</v>
+      </c>
+      <c r="D6" s="75">
+        <v>2</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="F6" t="s">
+        <v>166</v>
+      </c>
+      <c r="I6" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="49">
+        <v>2021</v>
+      </c>
+      <c r="K6" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L6" s="49">
+        <v>73.5</v>
+      </c>
+      <c r="M6" s="49">
+        <v>64</v>
+      </c>
+      <c r="N6" t="s">
+        <v>171</v>
+      </c>
+      <c r="O6" t="s">
+        <v>169</v>
+      </c>
+      <c r="P6" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q6" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="R6" t="s">
+        <v>175</v>
+      </c>
+      <c r="S6" s="25" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>164</v>
+      </c>
+      <c r="B7" s="77">
+        <v>44244</v>
+      </c>
+      <c r="C7" s="25">
+        <v>2021</v>
+      </c>
+      <c r="D7" s="75">
+        <v>2</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="G7" s="78">
+        <v>1.9</v>
+      </c>
+      <c r="H7" s="78">
+        <v>1.7</v>
+      </c>
+      <c r="I7" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7" s="49">
+        <v>2021</v>
+      </c>
+      <c r="K7" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L7" s="49">
+        <v>48</v>
+      </c>
+      <c r="M7" s="49">
+        <v>39</v>
+      </c>
+      <c r="N7" t="s">
+        <v>168</v>
+      </c>
+      <c r="O7" t="s">
+        <v>169</v>
+      </c>
+      <c r="P7" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q7" s="25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B8" s="77">
+        <v>44249</v>
+      </c>
+      <c r="C8" s="25">
+        <v>2021</v>
+      </c>
+      <c r="D8" s="75">
+        <v>2</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="G8" s="49">
+        <v>3.3</v>
+      </c>
+      <c r="H8" s="49">
+        <v>0.5</v>
+      </c>
+      <c r="I8" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8" s="49">
+        <v>2021</v>
+      </c>
+      <c r="K8" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L8" s="49">
+        <v>67</v>
+      </c>
+      <c r="M8" s="49">
+        <v>57</v>
+      </c>
+      <c r="N8" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="O8" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="P8" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q8" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="R8" t="s">
+        <v>178</v>
+      </c>
+      <c r="S8" s="25">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>164</v>
+      </c>
+      <c r="B9" s="77">
+        <v>44249</v>
+      </c>
+      <c r="C9" s="25">
+        <v>2021</v>
+      </c>
+      <c r="D9" s="75">
+        <v>2</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="G9" s="49">
+        <v>3.3</v>
+      </c>
+      <c r="H9" s="49">
+        <v>0.5</v>
+      </c>
+      <c r="I9" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="J9" s="49">
+        <v>2021</v>
+      </c>
+      <c r="K9" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L9" s="49">
+        <v>74</v>
+      </c>
+      <c r="M9" s="49">
+        <v>67</v>
+      </c>
+      <c r="N9" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="O9" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="P9" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q9" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="R9" t="s">
+        <v>179</v>
+      </c>
+      <c r="S9" s="25">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>164</v>
+      </c>
+      <c r="B10" s="74">
+        <v>44252</v>
+      </c>
+      <c r="C10" s="25">
+        <v>2021</v>
+      </c>
+      <c r="D10" s="75">
+        <v>2</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="F10" t="s">
+        <v>166</v>
+      </c>
+      <c r="G10" s="78">
+        <v>3.3</v>
+      </c>
+      <c r="H10" s="78">
+        <v>0.05</v>
+      </c>
+      <c r="I10" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10" s="49">
+        <v>2021</v>
+      </c>
+      <c r="K10" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L10" s="49">
+        <v>70.5</v>
+      </c>
+      <c r="M10" s="49">
+        <v>54</v>
+      </c>
+      <c r="N10" t="s">
+        <v>180</v>
+      </c>
+      <c r="O10" t="s">
+        <v>169</v>
+      </c>
+      <c r="P10" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q10" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="R10" t="s">
+        <v>172</v>
+      </c>
+      <c r="S10" s="25" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>164</v>
+      </c>
+      <c r="B11" s="74">
+        <v>44252</v>
+      </c>
+      <c r="C11" s="25">
+        <v>2021</v>
+      </c>
+      <c r="D11" s="75">
+        <v>2</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="F11" t="s">
+        <v>166</v>
+      </c>
+      <c r="G11" s="78">
+        <v>3.3</v>
+      </c>
+      <c r="H11" s="78">
+        <v>0.05</v>
+      </c>
+      <c r="I11" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="J11" s="49">
+        <v>2021</v>
+      </c>
+      <c r="K11" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L11" s="49">
+        <v>67</v>
+      </c>
+      <c r="M11" s="49">
+        <v>54</v>
+      </c>
+      <c r="N11" t="s">
+        <v>171</v>
+      </c>
+      <c r="O11" t="s">
+        <v>169</v>
+      </c>
+      <c r="P11" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q11" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="R11" t="s">
+        <v>172</v>
+      </c>
+      <c r="S11" s="25" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>164</v>
+      </c>
+      <c r="B12" s="77">
+        <v>44253</v>
+      </c>
+      <c r="C12" s="25">
+        <v>2021</v>
+      </c>
+      <c r="D12" s="75">
+        <v>2</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="F12" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="G12" s="49">
+        <v>6.4</v>
+      </c>
+      <c r="H12" s="49">
+        <v>3.3</v>
+      </c>
+      <c r="I12" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="J12" s="49">
+        <v>2021</v>
+      </c>
+      <c r="K12" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L12" s="49">
+        <v>64</v>
+      </c>
+      <c r="M12" s="49">
+        <v>57</v>
+      </c>
+      <c r="N12" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="O12" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="P12" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q12" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="R12" t="s">
+        <v>172</v>
+      </c>
+      <c r="S12" s="25" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>164</v>
+      </c>
+      <c r="B13" s="77">
+        <v>44258</v>
+      </c>
+      <c r="C13" s="25">
+        <v>2021</v>
+      </c>
+      <c r="D13" s="75">
+        <v>3</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="G13" s="49">
+        <v>6.4</v>
+      </c>
+      <c r="H13" s="49">
+        <v>3.3</v>
+      </c>
+      <c r="I13" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="J13" s="49">
+        <v>2021</v>
+      </c>
+      <c r="K13" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L13" s="49">
+        <v>63</v>
+      </c>
+      <c r="M13" s="49">
+        <v>53</v>
+      </c>
+      <c r="N13" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="O13" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="P13" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q13" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="R13" t="s">
+        <v>181</v>
+      </c>
+      <c r="S13" s="25">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>164</v>
+      </c>
+      <c r="B14" s="77">
+        <v>44259</v>
+      </c>
+      <c r="C14" s="25">
+        <v>2021</v>
+      </c>
+      <c r="D14" s="75">
+        <v>3</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="F14" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="G14" s="78">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="H14" s="49">
+        <v>6.4</v>
+      </c>
+      <c r="I14" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" s="49">
+        <v>2021</v>
+      </c>
+      <c r="K14" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L14" s="49">
+        <v>58</v>
+      </c>
+      <c r="M14" s="49">
+        <v>49</v>
+      </c>
+      <c r="N14" t="s">
+        <v>168</v>
+      </c>
+      <c r="O14" t="s">
+        <v>169</v>
+      </c>
+      <c r="P14" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q14" s="25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>164</v>
+      </c>
+      <c r="B15" s="74">
+        <v>44272</v>
+      </c>
+      <c r="C15" s="25">
+        <v>2021</v>
+      </c>
+      <c r="D15" s="75">
+        <v>3</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="F15" t="s">
+        <v>166</v>
+      </c>
+      <c r="G15" s="78">
+        <v>3.3</v>
+      </c>
+      <c r="H15" s="78">
+        <v>0.5</v>
+      </c>
+      <c r="I15" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="J15" s="49">
+        <v>2021</v>
+      </c>
+      <c r="K15" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L15" s="49">
+        <v>63</v>
+      </c>
+      <c r="M15" s="49">
+        <v>54</v>
+      </c>
+      <c r="N15" t="s">
+        <v>171</v>
+      </c>
+      <c r="O15" t="s">
+        <v>169</v>
+      </c>
+      <c r="P15" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q15" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="R15" t="s">
+        <v>172</v>
+      </c>
+      <c r="S15" s="25" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>164</v>
+      </c>
+      <c r="B16" s="77">
+        <v>44273</v>
+      </c>
+      <c r="C16" s="25">
+        <v>2021</v>
+      </c>
+      <c r="D16" s="75">
+        <v>3</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="F16" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="G16" s="49">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="H16" s="49">
+        <v>6.4</v>
+      </c>
+      <c r="I16" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="J16" s="49">
+        <v>2021</v>
+      </c>
+      <c r="K16" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L16" s="49">
+        <v>78</v>
+      </c>
+      <c r="M16" s="49">
+        <v>65</v>
+      </c>
+      <c r="N16" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="O16" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="P16" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q16" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="R16" t="s">
+        <v>175</v>
+      </c>
+      <c r="S16" s="25" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>164</v>
+      </c>
+      <c r="B17" s="74">
+        <v>44280</v>
+      </c>
+      <c r="C17" s="25">
+        <v>2021</v>
+      </c>
+      <c r="D17" s="75">
+        <v>3</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="F17" t="s">
+        <v>166</v>
+      </c>
+      <c r="G17" s="78">
+        <v>3.3</v>
+      </c>
+      <c r="H17" s="78">
+        <v>0.5</v>
+      </c>
+      <c r="I17" s="79" t="s">
+        <v>6</v>
+      </c>
+      <c r="J17" s="49">
+        <v>2021</v>
+      </c>
+      <c r="K17" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L17" s="49">
+        <v>40</v>
+      </c>
+      <c r="M17" s="49">
+        <v>34</v>
+      </c>
+      <c r="N17" t="s">
+        <v>168</v>
+      </c>
+      <c r="O17" t="s">
+        <v>169</v>
+      </c>
+      <c r="P17" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q17" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="S17" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="T17" s="79" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>164</v>
+      </c>
+      <c r="B18" s="74">
+        <v>44280</v>
+      </c>
+      <c r="C18" s="25">
+        <v>2021</v>
+      </c>
+      <c r="D18" s="75">
+        <v>3</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="F18" t="s">
+        <v>166</v>
+      </c>
+      <c r="G18" s="78">
+        <v>3.3</v>
+      </c>
+      <c r="H18" s="78">
+        <v>0.5</v>
+      </c>
+      <c r="I18" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="J18" s="49">
+        <v>2021</v>
+      </c>
+      <c r="K18" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L18" s="49">
+        <v>66</v>
+      </c>
+      <c r="M18" s="49">
+        <v>56</v>
+      </c>
+      <c r="N18" t="s">
+        <v>171</v>
+      </c>
+      <c r="O18" t="s">
+        <v>169</v>
+      </c>
+      <c r="P18" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q18" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="R18" t="s">
+        <v>172</v>
+      </c>
+      <c r="S18" s="25" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>182</v>
+      </c>
+      <c r="B19" s="77">
+        <v>44281</v>
+      </c>
+      <c r="C19" s="25">
+        <v>2021</v>
+      </c>
+      <c r="D19" s="75">
+        <v>3</v>
+      </c>
+      <c r="E19" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="F19" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="G19" s="49">
+        <v>2.5</v>
+      </c>
+      <c r="H19" s="49">
+        <v>1</v>
+      </c>
+      <c r="I19" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="J19" s="49">
+        <v>2021</v>
+      </c>
+      <c r="K19" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L19" s="49">
+        <v>27</v>
+      </c>
+      <c r="M19" s="49">
+        <v>23</v>
+      </c>
+      <c r="N19" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="O19" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="P19" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q19" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="R19" t="s">
+        <v>184</v>
+      </c>
+      <c r="S19" s="25">
+        <v>2017</v>
+      </c>
+      <c r="T19" s="79" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>182</v>
+      </c>
+      <c r="B20" s="77">
+        <v>44281</v>
+      </c>
+      <c r="C20" s="25">
+        <v>2021</v>
+      </c>
+      <c r="D20" s="75">
+        <v>3</v>
+      </c>
+      <c r="E20" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="F20" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="G20" s="49">
+        <v>2.5</v>
+      </c>
+      <c r="H20" s="49">
+        <v>1</v>
+      </c>
+      <c r="I20" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="J20" s="49">
+        <v>2021</v>
+      </c>
+      <c r="K20" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L20" s="49">
+        <v>64</v>
+      </c>
+      <c r="M20" s="49">
+        <v>54</v>
+      </c>
+      <c r="N20" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="O20" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="P20" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q20" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="R20" t="s">
+        <v>172</v>
+      </c>
+      <c r="S20" s="25" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>164</v>
+      </c>
+      <c r="B21" s="74">
+        <v>44287</v>
+      </c>
+      <c r="C21" s="25">
+        <v>2021</v>
+      </c>
+      <c r="D21" s="75">
+        <v>4</v>
+      </c>
+      <c r="E21" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="F21" t="s">
+        <v>166</v>
+      </c>
+      <c r="G21" s="78">
+        <v>3.3</v>
+      </c>
+      <c r="H21" s="78">
+        <v>0.5</v>
+      </c>
+      <c r="I21" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="J21" s="49">
+        <v>2021</v>
+      </c>
+      <c r="K21" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L21" s="49">
+        <v>69.5</v>
+      </c>
+      <c r="M21" s="49">
+        <v>55</v>
+      </c>
+      <c r="N21" t="s">
+        <v>180</v>
+      </c>
+      <c r="O21" t="s">
+        <v>169</v>
+      </c>
+      <c r="P21" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q21" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="R21" t="s">
+        <v>172</v>
+      </c>
+      <c r="S21" s="25" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>164</v>
+      </c>
+      <c r="B22" s="74">
+        <v>44287</v>
+      </c>
+      <c r="C22" s="25">
+        <v>2021</v>
+      </c>
+      <c r="D22" s="75">
+        <v>4</v>
+      </c>
+      <c r="E22" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="F22" t="s">
+        <v>166</v>
+      </c>
+      <c r="G22" s="78">
+        <v>3.3</v>
+      </c>
+      <c r="H22" s="78">
+        <v>0.5</v>
+      </c>
+      <c r="I22" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="J22" s="49">
+        <v>2021</v>
+      </c>
+      <c r="K22" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L22" s="49">
+        <v>66</v>
+      </c>
+      <c r="M22" s="49">
+        <v>54</v>
+      </c>
+      <c r="N22" t="s">
+        <v>180</v>
+      </c>
+      <c r="O22" s="80" t="s">
+        <v>186</v>
+      </c>
+      <c r="P22" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q22" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="R22" t="s">
+        <v>187</v>
+      </c>
+      <c r="S22" s="25">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>164</v>
+      </c>
+      <c r="B23" s="77">
+        <v>44287</v>
+      </c>
+      <c r="C23" s="25">
+        <v>2021</v>
+      </c>
+      <c r="D23" s="75">
+        <v>4</v>
+      </c>
+      <c r="E23" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="F23" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="G23" s="78">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="H23" s="49">
+        <v>6.4</v>
+      </c>
+      <c r="I23" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="J23" s="49">
+        <v>2021</v>
+      </c>
+      <c r="K23" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L23" s="49">
+        <v>41</v>
+      </c>
+      <c r="M23" s="49">
+        <v>34</v>
+      </c>
+      <c r="N23" t="s">
+        <v>168</v>
+      </c>
+      <c r="O23" t="s">
+        <v>169</v>
+      </c>
+      <c r="P23" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q23" s="25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>164</v>
+      </c>
+      <c r="B24" s="77">
+        <v>44292</v>
+      </c>
+      <c r="C24" s="25">
+        <v>2021</v>
+      </c>
+      <c r="D24" s="75">
+        <v>4</v>
+      </c>
+      <c r="E24" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="F24" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="G24" s="49">
+        <v>15.8</v>
+      </c>
+      <c r="H24" s="49">
+        <v>13.8</v>
+      </c>
+      <c r="I24" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="J24" s="49">
+        <v>2021</v>
+      </c>
+      <c r="K24" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L24" s="49">
+        <v>40</v>
+      </c>
+      <c r="M24" s="49">
+        <v>34</v>
+      </c>
+      <c r="N24" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="O24" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="P24" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q24" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="S24" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="T24" s="79" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>164</v>
+      </c>
+      <c r="B25" s="77">
+        <v>44292</v>
+      </c>
+      <c r="C25" s="25">
+        <v>2021</v>
+      </c>
+      <c r="D25" s="75">
+        <v>4</v>
+      </c>
+      <c r="E25" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="F25" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="G25" s="49">
+        <v>15.8</v>
+      </c>
+      <c r="H25" s="49">
+        <v>13.8</v>
+      </c>
+      <c r="I25" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="J25" s="49">
+        <v>2021</v>
+      </c>
+      <c r="K25" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L25" s="49">
+        <v>45</v>
+      </c>
+      <c r="M25" s="49">
+        <v>42</v>
+      </c>
+      <c r="N25" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="O25" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="P25" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q25" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="R25" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="S25" s="25" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>164</v>
+      </c>
+      <c r="B26" s="77">
+        <v>44292</v>
+      </c>
+      <c r="C26" s="25">
+        <v>2021</v>
+      </c>
+      <c r="D26" s="75">
+        <v>4</v>
+      </c>
+      <c r="E26" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="F26" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="G26" s="78">
+        <v>13.8</v>
+      </c>
+      <c r="H26" s="49">
+        <v>11.5</v>
+      </c>
+      <c r="I26" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="J26" s="49">
+        <v>2021</v>
+      </c>
+      <c r="K26" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L26" s="49">
+        <v>50</v>
+      </c>
+      <c r="M26" s="49">
+        <v>41</v>
+      </c>
+      <c r="N26" t="s">
+        <v>168</v>
+      </c>
+      <c r="O26" t="s">
+        <v>169</v>
+      </c>
+      <c r="P26" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q26" s="25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>164</v>
+      </c>
+      <c r="B27" s="77">
+        <v>44292</v>
+      </c>
+      <c r="C27" s="25">
+        <v>2021</v>
+      </c>
+      <c r="D27" s="75">
+        <v>4</v>
+      </c>
+      <c r="E27" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="F27" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="G27" s="78">
+        <v>13.8</v>
+      </c>
+      <c r="H27" s="49">
+        <v>11.5</v>
+      </c>
+      <c r="I27" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="J27" s="49">
+        <v>2021</v>
+      </c>
+      <c r="K27" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L27" s="49">
+        <v>51</v>
+      </c>
+      <c r="M27" s="49">
+        <v>43</v>
+      </c>
+      <c r="N27" t="s">
+        <v>168</v>
+      </c>
+      <c r="O27" t="s">
+        <v>169</v>
+      </c>
+      <c r="P27" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q27" s="25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>164</v>
+      </c>
+      <c r="B28" s="77">
+        <v>44292</v>
+      </c>
+      <c r="C28" s="25">
+        <v>2021</v>
+      </c>
+      <c r="D28" s="75">
+        <v>4</v>
+      </c>
+      <c r="E28" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="F28" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="G28" s="78">
+        <v>13.8</v>
+      </c>
+      <c r="H28" s="78">
+        <v>15.8</v>
+      </c>
+      <c r="I28" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="J28" s="49">
+        <v>2021</v>
+      </c>
+      <c r="K28" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L28" s="49">
+        <v>48</v>
+      </c>
+      <c r="M28" s="49">
+        <v>41</v>
+      </c>
+      <c r="N28" t="s">
+        <v>168</v>
+      </c>
+      <c r="O28" t="s">
+        <v>169</v>
+      </c>
+      <c r="P28" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q28" s="25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>164</v>
+      </c>
+      <c r="B29" s="77">
+        <v>44292</v>
+      </c>
+      <c r="C29" s="25">
+        <v>2021</v>
+      </c>
+      <c r="D29" s="75">
+        <v>4</v>
+      </c>
+      <c r="E29" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="F29" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="G29" s="78">
+        <v>13.8</v>
+      </c>
+      <c r="H29" s="78">
+        <v>15.8</v>
+      </c>
+      <c r="I29" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="J29" s="49">
+        <v>2021</v>
+      </c>
+      <c r="K29" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L29" s="49">
+        <v>44</v>
+      </c>
+      <c r="M29" s="49">
+        <v>37</v>
+      </c>
+      <c r="N29" t="s">
+        <v>168</v>
+      </c>
+      <c r="O29" t="s">
+        <v>169</v>
+      </c>
+      <c r="P29" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q29" s="25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>164</v>
+      </c>
+      <c r="B30" s="77">
+        <v>44292</v>
+      </c>
+      <c r="C30" s="25">
+        <v>2021</v>
+      </c>
+      <c r="D30" s="75">
+        <v>4</v>
+      </c>
+      <c r="E30" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="F30" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="G30" s="78">
+        <v>13.8</v>
+      </c>
+      <c r="H30" s="78">
+        <v>15.8</v>
+      </c>
+      <c r="I30" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="J30" s="49">
+        <v>2021</v>
+      </c>
+      <c r="K30" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L30" s="49">
+        <v>42</v>
+      </c>
+      <c r="M30" s="49">
+        <v>36</v>
+      </c>
+      <c r="N30" t="s">
+        <v>168</v>
+      </c>
+      <c r="O30" t="s">
+        <v>169</v>
+      </c>
+      <c r="P30" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q30" s="25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>164</v>
+      </c>
+      <c r="B31" s="77">
+        <v>44292</v>
+      </c>
+      <c r="C31" s="25">
+        <v>2021</v>
+      </c>
+      <c r="D31" s="75">
+        <v>4</v>
+      </c>
+      <c r="E31" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="F31" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="G31" s="78">
+        <v>13.8</v>
+      </c>
+      <c r="H31" s="78">
+        <v>15.8</v>
+      </c>
+      <c r="I31" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="J31" s="49">
+        <v>2021</v>
+      </c>
+      <c r="K31" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L31" s="49">
+        <v>49</v>
+      </c>
+      <c r="M31" s="49">
+        <v>42</v>
+      </c>
+      <c r="N31" t="s">
+        <v>168</v>
+      </c>
+      <c r="O31" t="s">
+        <v>169</v>
+      </c>
+      <c r="P31" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q31" s="25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>164</v>
+      </c>
+      <c r="B32" s="77">
+        <v>44292</v>
+      </c>
+      <c r="C32" s="25">
+        <v>2021</v>
+      </c>
+      <c r="D32" s="75">
+        <v>4</v>
+      </c>
+      <c r="E32" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="F32" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="G32" s="78">
+        <v>13.8</v>
+      </c>
+      <c r="H32" s="78">
+        <v>15.8</v>
+      </c>
+      <c r="I32" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="J32" s="49">
+        <v>2021</v>
+      </c>
+      <c r="K32" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L32" s="49">
+        <v>42</v>
+      </c>
+      <c r="M32" s="49">
+        <v>35</v>
+      </c>
+      <c r="N32" t="s">
+        <v>168</v>
+      </c>
+      <c r="O32" t="s">
+        <v>169</v>
+      </c>
+      <c r="P32" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q32" s="25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>164</v>
+      </c>
+      <c r="B33" s="77">
+        <v>44292</v>
+      </c>
+      <c r="C33" s="25">
+        <v>2021</v>
+      </c>
+      <c r="D33" s="75">
+        <v>4</v>
+      </c>
+      <c r="E33" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="F33" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="G33" s="78">
+        <v>13.8</v>
+      </c>
+      <c r="H33" s="78">
+        <v>15.8</v>
+      </c>
+      <c r="I33" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="J33" s="49">
+        <v>2021</v>
+      </c>
+      <c r="K33" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L33" s="49">
+        <v>44</v>
+      </c>
+      <c r="M33" s="49">
+        <v>37</v>
+      </c>
+      <c r="N33" t="s">
+        <v>168</v>
+      </c>
+      <c r="O33" t="s">
+        <v>169</v>
+      </c>
+      <c r="P33" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q33" s="25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>164</v>
+      </c>
+      <c r="B34" s="77">
+        <v>44292</v>
+      </c>
+      <c r="C34" s="25">
+        <v>2021</v>
+      </c>
+      <c r="D34" s="75">
+        <v>4</v>
+      </c>
+      <c r="E34" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="F34" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="G34" s="78">
+        <v>13.8</v>
+      </c>
+      <c r="H34" s="78">
+        <v>15.8</v>
+      </c>
+      <c r="I34" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="J34" s="49">
+        <v>2021</v>
+      </c>
+      <c r="K34" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L34" s="49">
+        <v>49</v>
+      </c>
+      <c r="M34" s="49">
+        <v>41</v>
+      </c>
+      <c r="N34" t="s">
+        <v>168</v>
+      </c>
+      <c r="O34" t="s">
+        <v>169</v>
+      </c>
+      <c r="P34" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q34" s="25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>164</v>
+      </c>
+      <c r="B35" s="77">
+        <v>44292</v>
+      </c>
+      <c r="C35" s="25">
+        <v>2021</v>
+      </c>
+      <c r="D35" s="75">
+        <v>4</v>
+      </c>
+      <c r="E35" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="F35" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="G35" s="78">
+        <v>13.8</v>
+      </c>
+      <c r="H35" s="78">
+        <v>15.8</v>
+      </c>
+      <c r="I35" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="J35" s="49">
+        <v>2021</v>
+      </c>
+      <c r="K35" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L35" s="49">
+        <v>55</v>
+      </c>
+      <c r="M35" s="49">
+        <v>46</v>
+      </c>
+      <c r="N35" t="s">
+        <v>168</v>
+      </c>
+      <c r="O35" t="s">
+        <v>169</v>
+      </c>
+      <c r="P35" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q35" s="25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>164</v>
+      </c>
+      <c r="B36" s="77">
+        <v>44292</v>
+      </c>
+      <c r="C36" s="25">
+        <v>2021</v>
+      </c>
+      <c r="D36" s="75">
+        <v>4</v>
+      </c>
+      <c r="E36" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="F36" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="G36" s="78">
+        <v>13.8</v>
+      </c>
+      <c r="H36" s="78">
+        <v>15.8</v>
+      </c>
+      <c r="I36" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="J36" s="49">
+        <v>2021</v>
+      </c>
+      <c r="K36" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L36" s="49">
+        <v>52</v>
+      </c>
+      <c r="M36" s="49">
+        <v>44</v>
+      </c>
+      <c r="N36" t="s">
+        <v>168</v>
+      </c>
+      <c r="O36" t="s">
+        <v>169</v>
+      </c>
+      <c r="P36" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q36" s="25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>164</v>
+      </c>
+      <c r="B37" s="77">
+        <v>44293</v>
+      </c>
+      <c r="C37" s="25">
+        <v>2021</v>
+      </c>
+      <c r="D37" s="75">
+        <v>4</v>
+      </c>
+      <c r="E37" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="F37" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="G37" s="49">
+        <v>6.4</v>
+      </c>
+      <c r="H37" s="49">
+        <v>3.3</v>
+      </c>
+      <c r="I37" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="J37" s="49">
+        <v>2021</v>
+      </c>
+      <c r="K37" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L37" s="49">
+        <v>67</v>
+      </c>
+      <c r="M37" s="49">
+        <v>56</v>
+      </c>
+      <c r="N37" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="O37" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="P37" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q37" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="R37" t="s">
+        <v>181</v>
+      </c>
+      <c r="S37" s="25">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>164</v>
+      </c>
+      <c r="B38" s="77">
+        <v>44293</v>
+      </c>
+      <c r="C38" s="25">
+        <v>2021</v>
+      </c>
+      <c r="D38" s="75">
+        <v>4</v>
+      </c>
+      <c r="E38" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="F38" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="G38" s="49">
+        <v>6.4</v>
+      </c>
+      <c r="H38" s="49">
+        <v>3.3</v>
+      </c>
+      <c r="I38" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="J38" s="49">
+        <v>2021</v>
+      </c>
+      <c r="K38" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L38" s="49">
+        <v>65</v>
+      </c>
+      <c r="M38" s="49">
+        <v>55</v>
+      </c>
+      <c r="N38" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="O38" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="P38" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q38" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="R38" t="s">
+        <v>181</v>
+      </c>
+      <c r="S38" s="25">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>164</v>
+      </c>
+      <c r="B39" s="74">
+        <v>44294</v>
+      </c>
+      <c r="C39" s="25">
+        <v>2021</v>
+      </c>
+      <c r="D39" s="75">
+        <v>4</v>
+      </c>
+      <c r="E39" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="F39" t="s">
+        <v>166</v>
+      </c>
+      <c r="G39" s="78">
+        <v>3.3</v>
+      </c>
+      <c r="H39" s="78">
+        <v>0.5</v>
+      </c>
+      <c r="I39" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="J39" s="49">
+        <v>2021</v>
+      </c>
+      <c r="K39" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L39" s="49">
+        <v>67</v>
+      </c>
+      <c r="M39" s="49">
+        <v>56</v>
+      </c>
+      <c r="N39" t="s">
+        <v>180</v>
+      </c>
+      <c r="O39" t="s">
+        <v>169</v>
+      </c>
+      <c r="P39" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q39" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="R39" t="s">
+        <v>175</v>
+      </c>
+      <c r="S39" s="25" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>164</v>
+      </c>
+      <c r="B40" s="74">
+        <v>44294</v>
+      </c>
+      <c r="C40" s="25">
+        <v>2021</v>
+      </c>
+      <c r="D40" s="75">
+        <v>4</v>
+      </c>
+      <c r="E40" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="F40" t="s">
+        <v>166</v>
+      </c>
+      <c r="G40" s="78">
+        <v>3.3</v>
+      </c>
+      <c r="H40" s="78">
+        <v>0.5</v>
+      </c>
+      <c r="I40" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="J40" s="49">
+        <v>2021</v>
+      </c>
+      <c r="K40" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L40" s="49">
+        <v>71</v>
+      </c>
+      <c r="M40" s="49">
+        <v>61</v>
+      </c>
+      <c r="N40" t="s">
+        <v>171</v>
+      </c>
+      <c r="O40" t="s">
+        <v>169</v>
+      </c>
+      <c r="P40" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q40" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="R40" t="s">
+        <v>188</v>
+      </c>
+      <c r="S40" s="25">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>164</v>
+      </c>
+      <c r="B41" s="74">
+        <v>44294</v>
+      </c>
+      <c r="C41" s="25">
+        <v>2021</v>
+      </c>
+      <c r="D41" s="75">
+        <v>4</v>
+      </c>
+      <c r="E41" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="F41" t="s">
+        <v>166</v>
+      </c>
+      <c r="G41" s="78">
+        <v>3.3</v>
+      </c>
+      <c r="H41" s="78">
+        <v>0.5</v>
+      </c>
+      <c r="I41" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="J41" s="49">
+        <v>2021</v>
+      </c>
+      <c r="K41" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L41" s="49">
+        <v>62</v>
+      </c>
+      <c r="M41" s="49">
+        <v>50</v>
+      </c>
+      <c r="N41" t="s">
+        <v>171</v>
+      </c>
+      <c r="O41" s="80" t="s">
+        <v>186</v>
+      </c>
+      <c r="P41" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q41" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="R41" t="s">
+        <v>187</v>
+      </c>
+      <c r="S41" s="25">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>164</v>
+      </c>
+      <c r="B42" s="74">
+        <v>44294</v>
+      </c>
+      <c r="C42" s="25">
+        <v>2021</v>
+      </c>
+      <c r="D42" s="75">
+        <v>4</v>
+      </c>
+      <c r="E42" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="F42" t="s">
+        <v>166</v>
+      </c>
+      <c r="G42" s="78">
+        <v>3.3</v>
+      </c>
+      <c r="H42" s="78">
+        <v>0.5</v>
+      </c>
+      <c r="I42" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="J42" s="49">
+        <v>2021</v>
+      </c>
+      <c r="K42" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L42" s="49">
+        <v>62</v>
+      </c>
+      <c r="M42" s="49">
+        <v>55</v>
+      </c>
+      <c r="N42" t="s">
+        <v>180</v>
+      </c>
+      <c r="O42" t="s">
+        <v>169</v>
+      </c>
+      <c r="P42" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q42" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="R42" t="s">
+        <v>181</v>
+      </c>
+      <c r="S42" s="25">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>164</v>
+      </c>
+      <c r="B43" s="74">
+        <v>44294</v>
+      </c>
+      <c r="C43" s="25">
+        <v>2021</v>
+      </c>
+      <c r="D43" s="75">
+        <v>4</v>
+      </c>
+      <c r="E43" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="F43" t="s">
+        <v>166</v>
+      </c>
+      <c r="G43" s="78">
+        <v>3.3</v>
+      </c>
+      <c r="H43" s="78">
+        <v>0.5</v>
+      </c>
+      <c r="I43" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="J43" s="49">
+        <v>2021</v>
+      </c>
+      <c r="K43" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L43" s="49">
+        <v>44</v>
+      </c>
+      <c r="M43" s="49">
+        <v>38</v>
+      </c>
+      <c r="N43" t="s">
+        <v>180</v>
+      </c>
+      <c r="O43" t="s">
+        <v>169</v>
+      </c>
+      <c r="P43" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q43" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="R43" t="s">
+        <v>189</v>
+      </c>
+      <c r="S43" s="25">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>164</v>
+      </c>
+      <c r="B44" s="74">
+        <v>44294</v>
+      </c>
+      <c r="C44" s="25">
+        <v>2021</v>
+      </c>
+      <c r="D44" s="75">
+        <v>4</v>
+      </c>
+      <c r="E44" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="F44" t="s">
+        <v>166</v>
+      </c>
+      <c r="G44" s="78">
+        <v>3.3</v>
+      </c>
+      <c r="H44" s="78">
+        <v>0.5</v>
+      </c>
+      <c r="I44" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="J44" s="49">
+        <v>2021</v>
+      </c>
+      <c r="K44" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L44" s="49">
+        <v>74</v>
+      </c>
+      <c r="M44" s="49">
+        <v>64</v>
+      </c>
+      <c r="N44" t="s">
+        <v>171</v>
+      </c>
+      <c r="O44" s="80" t="s">
+        <v>186</v>
+      </c>
+      <c r="P44" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q44" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="R44" t="s">
+        <v>187</v>
+      </c>
+      <c r="S44" s="25">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>164</v>
+      </c>
+      <c r="B45" s="74">
+        <v>44300</v>
+      </c>
+      <c r="C45" s="25">
+        <v>2021</v>
+      </c>
+      <c r="D45" s="75">
+        <v>4</v>
+      </c>
+      <c r="E45" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="F45" t="s">
+        <v>166</v>
+      </c>
+      <c r="G45" s="78">
+        <v>3.3</v>
+      </c>
+      <c r="H45" s="78">
+        <v>0.5</v>
+      </c>
+      <c r="I45" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="J45" s="49">
+        <v>2021</v>
+      </c>
+      <c r="K45" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L45" s="49">
+        <v>64</v>
+      </c>
+      <c r="M45" s="49">
+        <v>54</v>
+      </c>
+      <c r="N45" t="s">
+        <v>171</v>
+      </c>
+      <c r="O45" t="s">
+        <v>169</v>
+      </c>
+      <c r="P45" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q45" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="R45" t="s">
+        <v>172</v>
+      </c>
+      <c r="S45" s="25" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>164</v>
+      </c>
+      <c r="B46" s="74">
+        <v>44300</v>
+      </c>
+      <c r="C46" s="25">
+        <v>2021</v>
+      </c>
+      <c r="D46" s="75">
+        <v>4</v>
+      </c>
+      <c r="E46" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="F46" t="s">
+        <v>166</v>
+      </c>
+      <c r="G46" s="78">
+        <v>3.3</v>
+      </c>
+      <c r="H46" s="78">
+        <v>0.5</v>
+      </c>
+      <c r="I46" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="J46" s="49">
+        <v>2021</v>
+      </c>
+      <c r="K46" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L46" s="49">
+        <v>63</v>
+      </c>
+      <c r="M46" s="49">
+        <v>47</v>
+      </c>
+      <c r="N46" t="s">
+        <v>171</v>
+      </c>
+      <c r="O46" t="s">
+        <v>169</v>
+      </c>
+      <c r="P46" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q46" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="R46" t="s">
+        <v>181</v>
+      </c>
+      <c r="S46" s="25">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>164</v>
+      </c>
+      <c r="B47" s="74">
+        <v>44300</v>
+      </c>
+      <c r="C47" s="25">
+        <v>2021</v>
+      </c>
+      <c r="D47" s="75">
+        <v>4</v>
+      </c>
+      <c r="E47" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="F47" t="s">
+        <v>166</v>
+      </c>
+      <c r="G47" s="78">
+        <v>3.3</v>
+      </c>
+      <c r="H47" s="78">
+        <v>0.5</v>
+      </c>
+      <c r="I47" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="J47" s="49">
+        <v>2021</v>
+      </c>
+      <c r="K47" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L47" s="49">
+        <v>64</v>
+      </c>
+      <c r="M47" s="49">
+        <v>48</v>
+      </c>
+      <c r="N47" t="s">
+        <v>171</v>
+      </c>
+      <c r="O47" t="s">
+        <v>169</v>
+      </c>
+      <c r="P47" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q47" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="R47" t="s">
+        <v>190</v>
+      </c>
+      <c r="S47" s="25">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>164</v>
+      </c>
+      <c r="B48" s="74">
+        <v>44300</v>
+      </c>
+      <c r="C48" s="25">
+        <v>2021</v>
+      </c>
+      <c r="D48" s="75">
+        <v>4</v>
+      </c>
+      <c r="E48" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="F48" t="s">
+        <v>166</v>
+      </c>
+      <c r="G48" s="78">
+        <v>3.3</v>
+      </c>
+      <c r="H48" s="78">
+        <v>0.5</v>
+      </c>
+      <c r="I48" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="J48" s="49">
+        <v>2021</v>
+      </c>
+      <c r="K48" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L48" s="49">
+        <v>78</v>
+      </c>
+      <c r="M48" s="49">
+        <v>65</v>
+      </c>
+      <c r="N48" t="s">
+        <v>171</v>
+      </c>
+      <c r="O48" t="s">
+        <v>169</v>
+      </c>
+      <c r="P48" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q48" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="R48" t="s">
+        <v>175</v>
+      </c>
+      <c r="S48" s="25" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>164</v>
+      </c>
+      <c r="B49" s="77">
+        <v>44301</v>
+      </c>
+      <c r="C49" s="25">
+        <v>2021</v>
+      </c>
+      <c r="D49" s="75">
+        <v>4</v>
+      </c>
+      <c r="E49" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="F49" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="G49" s="78">
+        <v>6.4</v>
+      </c>
+      <c r="H49" s="78">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="I49" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="J49" s="49">
+        <v>2021</v>
+      </c>
+      <c r="K49" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L49" s="49">
+        <v>48</v>
+      </c>
+      <c r="M49" s="49">
+        <v>40</v>
+      </c>
+      <c r="N49" t="s">
+        <v>168</v>
+      </c>
+      <c r="O49" t="s">
+        <v>169</v>
+      </c>
+      <c r="P49" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q49" s="25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>164</v>
+      </c>
+      <c r="B50" s="77">
+        <v>44301</v>
+      </c>
+      <c r="C50" s="25">
+        <v>2021</v>
+      </c>
+      <c r="D50" s="75">
+        <v>4</v>
+      </c>
+      <c r="E50" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="F50" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="G50" s="78">
+        <v>6.4</v>
+      </c>
+      <c r="H50" s="78">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="I50" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="J50" s="49">
+        <v>2021</v>
+      </c>
+      <c r="K50" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L50" s="49">
+        <v>67</v>
+      </c>
+      <c r="M50" s="49">
+        <v>53</v>
+      </c>
+      <c r="N50" t="s">
+        <v>168</v>
+      </c>
+      <c r="O50" t="s">
+        <v>169</v>
+      </c>
+      <c r="P50" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q50" s="25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>164</v>
+      </c>
+      <c r="B51" s="77">
+        <v>44301</v>
+      </c>
+      <c r="C51" s="25">
+        <v>2021</v>
+      </c>
+      <c r="D51" s="75">
+        <v>4</v>
+      </c>
+      <c r="E51" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="F51" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="G51" s="78">
+        <v>6.4</v>
+      </c>
+      <c r="H51" s="78">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="I51" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="J51" s="49">
+        <v>2021</v>
+      </c>
+      <c r="K51" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L51" s="49">
+        <v>40</v>
+      </c>
+      <c r="M51" s="49">
+        <v>34</v>
+      </c>
+      <c r="N51" t="s">
+        <v>168</v>
+      </c>
+      <c r="O51" t="s">
+        <v>169</v>
+      </c>
+      <c r="P51" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q51" s="25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>164</v>
+      </c>
+      <c r="B52" s="77">
+        <v>44302</v>
+      </c>
+      <c r="C52" s="25">
+        <v>2021</v>
+      </c>
+      <c r="D52" s="75">
+        <v>4</v>
+      </c>
+      <c r="E52" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="F52" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="G52" s="49">
+        <v>6.4</v>
+      </c>
+      <c r="H52" s="49">
+        <v>3.3</v>
+      </c>
+      <c r="I52" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="J52" s="49">
+        <v>2021</v>
+      </c>
+      <c r="K52" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L52" s="49">
+        <v>77</v>
+      </c>
+      <c r="M52" s="49">
+        <v>65</v>
+      </c>
+      <c r="N52" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="O52" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="P52" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q52" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="R52" t="s">
+        <v>178</v>
+      </c>
+      <c r="S52" s="25">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>164</v>
+      </c>
+      <c r="B53" s="77">
+        <v>44302</v>
+      </c>
+      <c r="C53" s="25">
+        <v>2021</v>
+      </c>
+      <c r="D53" s="75">
+        <v>4</v>
+      </c>
+      <c r="E53" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="F53" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="G53" s="49">
+        <v>6.4</v>
+      </c>
+      <c r="H53" s="49">
+        <v>3.3</v>
+      </c>
+      <c r="I53" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="J53" s="49">
+        <v>2021</v>
+      </c>
+      <c r="K53" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L53" s="49">
+        <v>54</v>
+      </c>
+      <c r="M53" s="49">
+        <v>45</v>
+      </c>
+      <c r="N53" t="s">
+        <v>168</v>
+      </c>
+      <c r="O53" t="s">
+        <v>169</v>
+      </c>
+      <c r="P53" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q53" s="25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>164</v>
+      </c>
+      <c r="B54" s="74">
+        <v>44314</v>
+      </c>
+      <c r="C54" s="25">
+        <v>2021</v>
+      </c>
+      <c r="D54" s="75">
+        <v>4</v>
+      </c>
+      <c r="E54" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="F54" t="s">
+        <v>166</v>
+      </c>
+      <c r="G54" s="78">
+        <v>3.3</v>
+      </c>
+      <c r="H54" s="78">
+        <v>0.5</v>
+      </c>
+      <c r="I54" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="J54" s="49">
+        <v>2021</v>
+      </c>
+      <c r="K54" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L54" s="49">
+        <v>58</v>
+      </c>
+      <c r="M54" s="49">
+        <v>45</v>
+      </c>
+      <c r="N54" t="s">
+        <v>171</v>
+      </c>
+      <c r="O54" t="s">
+        <v>169</v>
+      </c>
+      <c r="P54" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q54" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="R54" t="s">
+        <v>181</v>
+      </c>
+      <c r="S54" s="25">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>164</v>
+      </c>
+      <c r="B55" s="77">
+        <v>44314</v>
+      </c>
+      <c r="C55" s="25">
+        <v>2021</v>
+      </c>
+      <c r="D55" s="75">
+        <v>4</v>
+      </c>
+      <c r="E55" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="F55" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="I55" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="J55" s="49">
+        <v>2021</v>
+      </c>
+      <c r="K55" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L55" s="49">
+        <v>50</v>
+      </c>
+      <c r="M55" s="49">
+        <v>39</v>
+      </c>
+      <c r="N55" t="s">
+        <v>168</v>
+      </c>
+      <c r="O55" t="s">
+        <v>169</v>
+      </c>
+      <c r="P55" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q55" s="25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>164</v>
+      </c>
+      <c r="B56" s="77">
+        <v>44314</v>
+      </c>
+      <c r="C56" s="25">
+        <v>2021</v>
+      </c>
+      <c r="D56" s="75">
+        <v>4</v>
+      </c>
+      <c r="E56" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="F56" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="I56" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="J56" s="49">
+        <v>2021</v>
+      </c>
+      <c r="K56" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L56" s="49">
+        <v>58</v>
+      </c>
+      <c r="M56" s="49">
+        <v>46</v>
+      </c>
+      <c r="N56" t="s">
+        <v>168</v>
+      </c>
+      <c r="O56" t="s">
+        <v>169</v>
+      </c>
+      <c r="P56" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q56" s="25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>164</v>
+      </c>
+      <c r="B57" s="77">
+        <v>44321</v>
+      </c>
+      <c r="C57" s="25">
+        <v>2021</v>
+      </c>
+      <c r="D57" s="75">
+        <v>5</v>
+      </c>
+      <c r="E57" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="F57" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="G57" s="49">
+        <v>6.4</v>
+      </c>
+      <c r="H57" s="49">
+        <v>3.3</v>
+      </c>
+      <c r="I57" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="J57" s="49">
+        <v>2021</v>
+      </c>
+      <c r="K57" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L57" s="49">
+        <v>70</v>
+      </c>
+      <c r="M57" s="49">
+        <v>60</v>
+      </c>
+      <c r="N57" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="O57" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="P57" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q57" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="R57" t="s">
+        <v>191</v>
+      </c>
+      <c r="S57" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="T57" s="25" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>164</v>
+      </c>
+      <c r="B58" s="74">
+        <v>44355</v>
+      </c>
+      <c r="C58" s="25">
+        <v>2021</v>
+      </c>
+      <c r="D58" s="75">
+        <v>6</v>
+      </c>
+      <c r="E58" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="F58" t="s">
+        <v>166</v>
+      </c>
+      <c r="G58" s="78">
+        <v>4</v>
+      </c>
+      <c r="H58" s="78">
+        <v>3.5</v>
+      </c>
+      <c r="I58" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="J58" s="49">
+        <v>2021</v>
+      </c>
+      <c r="K58" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L58" s="49">
+        <v>72</v>
+      </c>
+      <c r="N58" t="s">
+        <v>180</v>
+      </c>
+      <c r="O58" t="s">
+        <v>169</v>
+      </c>
+      <c r="P58" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q58" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="R58" t="s">
+        <v>181</v>
+      </c>
+      <c r="S58" s="25">
+        <v>2017</v>
+      </c>
+      <c r="T58" s="81" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>164</v>
+      </c>
+      <c r="B59" s="74">
+        <v>44355</v>
+      </c>
+      <c r="C59" s="25">
+        <v>2021</v>
+      </c>
+      <c r="D59" s="75">
+        <v>6</v>
+      </c>
+      <c r="E59" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="F59" t="s">
+        <v>193</v>
+      </c>
+      <c r="G59" s="78">
+        <v>11</v>
+      </c>
+      <c r="H59" s="78">
+        <v>10</v>
+      </c>
+      <c r="I59" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="J59" s="49">
+        <v>2021</v>
+      </c>
+      <c r="K59" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L59" s="49">
+        <v>45.5</v>
+      </c>
+      <c r="M59" s="49">
+        <v>41</v>
+      </c>
+      <c r="N59" t="s">
+        <v>180</v>
+      </c>
+      <c r="O59" t="s">
+        <v>169</v>
+      </c>
+      <c r="P59" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q59" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="S59" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="T59" s="79" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>164</v>
+      </c>
+      <c r="B60" s="74">
+        <v>44355</v>
+      </c>
+      <c r="C60" s="25">
+        <v>2021</v>
+      </c>
+      <c r="D60" s="75">
+        <v>6</v>
+      </c>
+      <c r="E60" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="F60" t="s">
+        <v>193</v>
+      </c>
+      <c r="G60" s="78">
+        <v>11</v>
+      </c>
+      <c r="H60" s="78">
+        <v>10</v>
+      </c>
+      <c r="I60" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="J60" s="49">
+        <v>2021</v>
+      </c>
+      <c r="K60" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L60" s="49">
+        <v>35</v>
+      </c>
+      <c r="M60" s="49">
+        <v>29</v>
+      </c>
+      <c r="N60" t="s">
+        <v>168</v>
+      </c>
+      <c r="O60" t="s">
+        <v>169</v>
+      </c>
+      <c r="P60" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q60" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="S60" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="T60" s="79" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>164</v>
+      </c>
+      <c r="B61" s="77">
+        <v>44355</v>
+      </c>
+      <c r="C61" s="25">
+        <v>2021</v>
+      </c>
+      <c r="D61" s="75">
+        <v>6</v>
+      </c>
+      <c r="E61" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="F61" s="25" t="s">
+        <v>193</v>
+      </c>
+      <c r="G61" s="78">
+        <v>9.6</v>
+      </c>
+      <c r="H61" s="78">
+        <v>9.9</v>
+      </c>
+      <c r="I61" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="J61" s="49">
+        <v>2021</v>
+      </c>
+      <c r="K61" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L61" s="49">
+        <v>52</v>
+      </c>
+      <c r="N61" t="s">
+        <v>168</v>
+      </c>
+      <c r="O61" t="s">
+        <v>169</v>
+      </c>
+      <c r="P61" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q61" s="25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>164</v>
+      </c>
+      <c r="B62" s="77">
+        <v>44355</v>
+      </c>
+      <c r="C62" s="25">
+        <v>2021</v>
+      </c>
+      <c r="D62" s="75">
+        <v>6</v>
+      </c>
+      <c r="E62" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="F62" s="25" t="s">
+        <v>193</v>
+      </c>
+      <c r="G62" s="78">
+        <v>11</v>
+      </c>
+      <c r="H62" s="78">
+        <v>11.2</v>
+      </c>
+      <c r="I62" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="J62" s="49">
+        <v>2021</v>
+      </c>
+      <c r="K62" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L62" s="49">
+        <v>38.5</v>
+      </c>
+      <c r="M62" s="49">
+        <v>34.5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>168</v>
+      </c>
+      <c r="O62" t="s">
+        <v>169</v>
+      </c>
+      <c r="P62" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q62" s="25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>164</v>
+      </c>
+      <c r="B63" s="77">
+        <v>44355</v>
+      </c>
+      <c r="C63" s="25">
+        <v>2021</v>
+      </c>
+      <c r="D63" s="75">
+        <v>6</v>
+      </c>
+      <c r="E63" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="F63" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="G63" s="78">
+        <v>11.6</v>
+      </c>
+      <c r="H63" s="78">
+        <v>11.8</v>
+      </c>
+      <c r="I63" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="J63" s="49">
+        <v>2021</v>
+      </c>
+      <c r="K63" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L63" s="49">
+        <v>44</v>
+      </c>
+      <c r="N63" t="s">
+        <v>168</v>
+      </c>
+      <c r="O63" t="s">
+        <v>169</v>
+      </c>
+      <c r="P63" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q63" s="25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>164</v>
+      </c>
+      <c r="B64" s="77">
+        <v>44355</v>
+      </c>
+      <c r="C64" s="25">
+        <v>2021</v>
+      </c>
+      <c r="D64" s="75">
+        <v>6</v>
+      </c>
+      <c r="E64" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="F64" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="G64" s="78">
+        <v>11.6</v>
+      </c>
+      <c r="H64" s="78">
+        <v>11.8</v>
+      </c>
+      <c r="I64" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="J64" s="49">
+        <v>2021</v>
+      </c>
+      <c r="K64" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L64" s="49">
+        <v>52</v>
+      </c>
+      <c r="N64" t="s">
+        <v>168</v>
+      </c>
+      <c r="O64" t="s">
+        <v>169</v>
+      </c>
+      <c r="P64" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q64" s="25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>164</v>
+      </c>
+      <c r="B65" s="77">
+        <v>44355</v>
+      </c>
+      <c r="C65" s="25">
+        <v>2021</v>
+      </c>
+      <c r="D65" s="75">
+        <v>6</v>
+      </c>
+      <c r="E65" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="F65" s="25" t="s">
+        <v>193</v>
+      </c>
+      <c r="I65" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="J65" s="49">
+        <v>2021</v>
+      </c>
+      <c r="K65" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L65" s="49">
+        <v>30.5</v>
+      </c>
+      <c r="M65" s="49">
+        <v>27</v>
+      </c>
+      <c r="N65" t="s">
+        <v>168</v>
+      </c>
+      <c r="O65" t="s">
+        <v>169</v>
+      </c>
+      <c r="P65" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q65" s="25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>164</v>
+      </c>
+      <c r="B66" s="77">
+        <v>44355</v>
+      </c>
+      <c r="C66" s="25">
+        <v>2021</v>
+      </c>
+      <c r="D66" s="75">
+        <v>6</v>
+      </c>
+      <c r="E66" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="F66" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="I66" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="J66" s="49">
+        <v>2021</v>
+      </c>
+      <c r="K66" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L66" s="49">
+        <v>49.5</v>
+      </c>
+      <c r="M66" s="49">
+        <v>38.5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>168</v>
+      </c>
+      <c r="O66" t="s">
+        <v>169</v>
+      </c>
+      <c r="P66" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q66" s="25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>164</v>
+      </c>
+      <c r="B67" s="77">
+        <v>44355</v>
+      </c>
+      <c r="C67" s="25">
+        <v>2021</v>
+      </c>
+      <c r="D67" s="75">
+        <v>6</v>
+      </c>
+      <c r="E67" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="F67" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="I67" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="J67" s="49">
+        <v>2021</v>
+      </c>
+      <c r="K67" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L67" s="49">
+        <v>54</v>
+      </c>
+      <c r="M67" s="49">
+        <v>42.2</v>
+      </c>
+      <c r="N67" t="s">
+        <v>168</v>
+      </c>
+      <c r="O67" t="s">
+        <v>169</v>
+      </c>
+      <c r="P67" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q67" s="25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>164</v>
+      </c>
+      <c r="B68" s="77">
+        <v>44364</v>
+      </c>
+      <c r="C68" s="25">
+        <v>2021</v>
+      </c>
+      <c r="D68" s="75">
+        <v>6</v>
+      </c>
+      <c r="E68" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="F68" s="25" t="s">
+        <v>193</v>
+      </c>
+      <c r="I68" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="J68" s="49">
+        <v>2021</v>
+      </c>
+      <c r="K68" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L68" s="49">
+        <v>52</v>
+      </c>
+      <c r="N68" t="s">
+        <v>168</v>
+      </c>
+      <c r="O68" t="s">
+        <v>169</v>
+      </c>
+      <c r="P68" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q68" s="25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>164</v>
+      </c>
+      <c r="B69" s="77">
+        <v>44364</v>
+      </c>
+      <c r="C69" s="25">
+        <v>2021</v>
+      </c>
+      <c r="D69" s="75">
+        <v>6</v>
+      </c>
+      <c r="E69" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="F69" s="25" t="s">
+        <v>193</v>
+      </c>
+      <c r="I69" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="J69" s="49">
+        <v>2021</v>
+      </c>
+      <c r="K69" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L69" s="49">
+        <v>63</v>
+      </c>
+      <c r="N69" t="s">
+        <v>168</v>
+      </c>
+      <c r="O69" t="s">
+        <v>169</v>
+      </c>
+      <c r="P69" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q69" s="25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>164</v>
+      </c>
+      <c r="B70" s="77">
+        <v>44364</v>
+      </c>
+      <c r="C70" s="25">
+        <v>2021</v>
+      </c>
+      <c r="D70" s="75">
+        <v>6</v>
+      </c>
+      <c r="E70" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="F70" s="25" t="s">
+        <v>193</v>
+      </c>
+      <c r="I70" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="J70" s="49">
+        <v>2021</v>
+      </c>
+      <c r="K70" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L70" s="49">
+        <v>57</v>
+      </c>
+      <c r="N70" t="s">
+        <v>168</v>
+      </c>
+      <c r="O70" t="s">
+        <v>169</v>
+      </c>
+      <c r="P70" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q70" s="25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>164</v>
+      </c>
+      <c r="B71" s="77">
+        <v>44364</v>
+      </c>
+      <c r="C71" s="25">
+        <v>2021</v>
+      </c>
+      <c r="D71" s="75">
+        <v>6</v>
+      </c>
+      <c r="E71" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="F71" s="25" t="s">
+        <v>193</v>
+      </c>
+      <c r="I71" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="J71" s="49">
+        <v>2021</v>
+      </c>
+      <c r="K71" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L71" s="49">
+        <v>44</v>
+      </c>
+      <c r="M71" s="49">
+        <v>36</v>
+      </c>
+      <c r="N71" t="s">
+        <v>168</v>
+      </c>
+      <c r="O71" t="s">
+        <v>169</v>
+      </c>
+      <c r="P71" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q71" s="25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>164</v>
+      </c>
+      <c r="B72" s="77">
+        <v>44364</v>
+      </c>
+      <c r="C72" s="25">
+        <v>2021</v>
+      </c>
+      <c r="D72" s="75">
+        <v>6</v>
+      </c>
+      <c r="E72" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="F72" s="25" t="s">
+        <v>193</v>
+      </c>
+      <c r="I72" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="J72" s="49">
+        <v>2021</v>
+      </c>
+      <c r="K72" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L72" s="49">
+        <v>27</v>
+      </c>
+      <c r="M72" s="49">
+        <v>24</v>
+      </c>
+      <c r="N72" t="s">
+        <v>168</v>
+      </c>
+      <c r="O72" t="s">
+        <v>169</v>
+      </c>
+      <c r="P72" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q72" s="25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{429749C6-AA49-4235-8FCB-2F0722261005}">
   <dimension ref="A1:G21"/>
   <sheetViews>
@@ -6732,7 +10909,1639 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A37E6FC-D82F-4BC0-A7B7-C03AF8CD2842}">
+  <dimension ref="A1:T28"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L30" sqref="L30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G1" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="H1" s="49" t="s">
+        <v>152</v>
+      </c>
+      <c r="I1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J1" s="49" t="s">
+        <v>153</v>
+      </c>
+      <c r="K1" t="s">
+        <v>154</v>
+      </c>
+      <c r="L1" s="49" t="s">
+        <v>155</v>
+      </c>
+      <c r="M1" s="49" t="s">
+        <v>156</v>
+      </c>
+      <c r="N1" t="s">
+        <v>157</v>
+      </c>
+      <c r="O1" t="s">
+        <v>158</v>
+      </c>
+      <c r="P1" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>160</v>
+      </c>
+      <c r="R1" t="s">
+        <v>161</v>
+      </c>
+      <c r="S1" t="s">
+        <v>162</v>
+      </c>
+      <c r="T1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B2" s="77">
+        <v>43886</v>
+      </c>
+      <c r="C2" s="25">
+        <v>2020</v>
+      </c>
+      <c r="D2" s="75">
+        <v>2</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="G2" s="49">
+        <v>2.5</v>
+      </c>
+      <c r="H2" s="49">
+        <v>1</v>
+      </c>
+      <c r="I2" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="J2" s="49">
+        <v>2020</v>
+      </c>
+      <c r="K2" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L2" s="49">
+        <v>37</v>
+      </c>
+      <c r="M2" s="49">
+        <v>30</v>
+      </c>
+      <c r="N2" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="O2" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="P2" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q2" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="T2" s="82" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B3" s="77">
+        <v>43892</v>
+      </c>
+      <c r="C3" s="25">
+        <v>2020</v>
+      </c>
+      <c r="D3" s="75">
+        <v>3</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="G3" s="49">
+        <v>3.3</v>
+      </c>
+      <c r="H3" s="49">
+        <v>0.5</v>
+      </c>
+      <c r="I3" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="49">
+        <v>2020</v>
+      </c>
+      <c r="K3" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L3" s="49">
+        <v>64</v>
+      </c>
+      <c r="M3" s="49">
+        <v>54</v>
+      </c>
+      <c r="N3" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="O3" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="P3" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q3" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="R3" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="S3" s="25">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B4" s="77">
+        <v>43892</v>
+      </c>
+      <c r="C4" s="25">
+        <v>2020</v>
+      </c>
+      <c r="D4" s="75">
+        <v>3</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="G4" s="49">
+        <v>3.3</v>
+      </c>
+      <c r="H4" s="49">
+        <v>0.5</v>
+      </c>
+      <c r="I4" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="49">
+        <v>2020</v>
+      </c>
+      <c r="K4" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L4" s="49">
+        <v>61</v>
+      </c>
+      <c r="M4" s="49">
+        <v>50</v>
+      </c>
+      <c r="N4" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="O4" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="P4" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q4" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="R4" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="S4" s="25">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B5" s="77">
+        <v>43892</v>
+      </c>
+      <c r="C5" s="25">
+        <v>2020</v>
+      </c>
+      <c r="D5" s="75">
+        <v>3</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="G5" s="49">
+        <v>3.3</v>
+      </c>
+      <c r="H5" s="49">
+        <v>0.5</v>
+      </c>
+      <c r="I5" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" s="49">
+        <v>2020</v>
+      </c>
+      <c r="K5" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L5" s="49">
+        <v>66</v>
+      </c>
+      <c r="M5" s="49">
+        <v>54</v>
+      </c>
+      <c r="N5" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="O5" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="P5" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q5" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="R5" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="S5" s="25">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>164</v>
+      </c>
+      <c r="B6" s="77">
+        <v>43892</v>
+      </c>
+      <c r="C6" s="25">
+        <v>2020</v>
+      </c>
+      <c r="D6" s="75">
+        <v>3</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="G6" s="49">
+        <v>3.3</v>
+      </c>
+      <c r="H6" s="49">
+        <v>0.5</v>
+      </c>
+      <c r="I6" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="49">
+        <v>2020</v>
+      </c>
+      <c r="K6" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L6" s="49">
+        <v>65</v>
+      </c>
+      <c r="M6" s="49">
+        <v>55</v>
+      </c>
+      <c r="N6" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="O6" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="P6" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q6" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="R6" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="S6" s="25">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>164</v>
+      </c>
+      <c r="B7" s="77">
+        <v>43893</v>
+      </c>
+      <c r="C7" s="25">
+        <v>2020</v>
+      </c>
+      <c r="D7" s="75">
+        <v>3</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="G7" s="49">
+        <v>6.4</v>
+      </c>
+      <c r="H7" s="49">
+        <v>3.3</v>
+      </c>
+      <c r="I7" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="J7" s="49">
+        <v>2020</v>
+      </c>
+      <c r="K7" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L7" s="49">
+        <v>79</v>
+      </c>
+      <c r="M7" s="49">
+        <v>66</v>
+      </c>
+      <c r="N7" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="O7" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="P7" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q7" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="R7" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="S7" s="25">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B8" s="77">
+        <v>43895</v>
+      </c>
+      <c r="C8" s="25">
+        <v>2020</v>
+      </c>
+      <c r="D8" s="75">
+        <v>3</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="G8" s="49">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="H8" s="49">
+        <v>6.4</v>
+      </c>
+      <c r="I8" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8" s="49">
+        <v>2020</v>
+      </c>
+      <c r="K8" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L8" s="49">
+        <v>60</v>
+      </c>
+      <c r="M8" s="49">
+        <v>50</v>
+      </c>
+      <c r="N8" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="O8" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="P8" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q8" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="R8" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="S8" s="25">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>164</v>
+      </c>
+      <c r="B9" s="77">
+        <v>43895</v>
+      </c>
+      <c r="C9" s="25">
+        <v>2020</v>
+      </c>
+      <c r="D9" s="75">
+        <v>3</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="G9" s="49">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="H9" s="49">
+        <v>6.4</v>
+      </c>
+      <c r="I9" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="J9" s="49">
+        <v>2020</v>
+      </c>
+      <c r="K9" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L9" s="49">
+        <v>63</v>
+      </c>
+      <c r="M9" s="49">
+        <v>51</v>
+      </c>
+      <c r="N9" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="O9" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="P9" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q9" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="R9" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="S9" s="25">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>164</v>
+      </c>
+      <c r="B10" s="77">
+        <v>43900</v>
+      </c>
+      <c r="C10" s="25">
+        <v>2020</v>
+      </c>
+      <c r="D10" s="75">
+        <v>3</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="G10" s="49">
+        <v>15.8</v>
+      </c>
+      <c r="H10" s="49">
+        <v>13.8</v>
+      </c>
+      <c r="I10" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10" s="49">
+        <v>2020</v>
+      </c>
+      <c r="K10" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L10" s="49">
+        <v>64</v>
+      </c>
+      <c r="M10" s="49">
+        <v>54</v>
+      </c>
+      <c r="N10" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="O10" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="P10" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q10" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="R10" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="S10" s="25">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>164</v>
+      </c>
+      <c r="B11" s="77">
+        <v>43902</v>
+      </c>
+      <c r="C11" s="25">
+        <v>2020</v>
+      </c>
+      <c r="D11" s="75">
+        <v>3</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="G11" s="49">
+        <v>13.8</v>
+      </c>
+      <c r="H11" s="49">
+        <v>11.2</v>
+      </c>
+      <c r="I11" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="J11" s="49">
+        <v>2020</v>
+      </c>
+      <c r="K11" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L11" s="49">
+        <v>65</v>
+      </c>
+      <c r="M11" s="49">
+        <v>54</v>
+      </c>
+      <c r="N11" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="O11" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="P11" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q11" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="R11" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="S11" s="25">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>164</v>
+      </c>
+      <c r="B12" s="77">
+        <v>43902</v>
+      </c>
+      <c r="C12" s="25">
+        <v>2020</v>
+      </c>
+      <c r="D12" s="75">
+        <v>3</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="F12" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="G12" s="49">
+        <v>13.8</v>
+      </c>
+      <c r="H12" s="49">
+        <v>11.2</v>
+      </c>
+      <c r="I12" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="J12" s="49">
+        <v>2020</v>
+      </c>
+      <c r="K12" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L12" s="49">
+        <v>72</v>
+      </c>
+      <c r="M12" s="49">
+        <v>60</v>
+      </c>
+      <c r="N12" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="O12" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="P12" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q12" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="R12" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="S12" s="25">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>164</v>
+      </c>
+      <c r="B13" s="77">
+        <v>43903</v>
+      </c>
+      <c r="C13" s="25">
+        <v>2020</v>
+      </c>
+      <c r="D13" s="75">
+        <v>3</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="G13" s="49">
+        <v>6.4</v>
+      </c>
+      <c r="H13" s="49">
+        <v>3.3</v>
+      </c>
+      <c r="I13" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="J13" s="49">
+        <v>2020</v>
+      </c>
+      <c r="K13" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L13" s="49">
+        <v>60</v>
+      </c>
+      <c r="M13" s="49">
+        <v>50</v>
+      </c>
+      <c r="N13" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="O13" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="P13" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q13" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="R13" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="S13" s="25">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>164</v>
+      </c>
+      <c r="B14" s="77">
+        <v>43907</v>
+      </c>
+      <c r="C14" s="25">
+        <v>2020</v>
+      </c>
+      <c r="D14" s="75">
+        <v>3</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="F14" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="G14" s="49">
+        <v>3.3</v>
+      </c>
+      <c r="H14" s="49">
+        <v>0.7</v>
+      </c>
+      <c r="I14" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="J14" s="49">
+        <v>2020</v>
+      </c>
+      <c r="K14" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L14" s="49">
+        <v>58</v>
+      </c>
+      <c r="M14" s="49">
+        <v>48</v>
+      </c>
+      <c r="N14" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="O14" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="P14" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q14" s="83" t="s">
+        <v>8</v>
+      </c>
+      <c r="R14" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="S14" s="25">
+        <v>2017</v>
+      </c>
+      <c r="T14" s="83" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>164</v>
+      </c>
+      <c r="B15" s="77">
+        <v>43908</v>
+      </c>
+      <c r="C15" s="25">
+        <v>2020</v>
+      </c>
+      <c r="D15" s="75">
+        <v>3</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="F15" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="G15" s="49">
+        <v>18.7</v>
+      </c>
+      <c r="H15" s="49">
+        <v>17.5</v>
+      </c>
+      <c r="I15" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="J15" s="49">
+        <v>2020</v>
+      </c>
+      <c r="K15" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L15" s="49">
+        <v>41</v>
+      </c>
+      <c r="M15" s="49">
+        <v>33</v>
+      </c>
+      <c r="N15" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="O15" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="P15" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q15" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="R15" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="T15" s="79" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>164</v>
+      </c>
+      <c r="B16" s="77">
+        <v>43934</v>
+      </c>
+      <c r="C16" s="25">
+        <v>2020</v>
+      </c>
+      <c r="D16" s="75">
+        <v>4</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="F16" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="G16" s="49">
+        <v>6.4</v>
+      </c>
+      <c r="H16" s="49">
+        <v>3.3</v>
+      </c>
+      <c r="I16" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="J16" s="49">
+        <v>2020</v>
+      </c>
+      <c r="K16" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L16" s="49">
+        <v>66</v>
+      </c>
+      <c r="M16" s="49">
+        <v>54</v>
+      </c>
+      <c r="N16" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="O16" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="P16" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q16" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="R16" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="S16" s="25">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>164</v>
+      </c>
+      <c r="B17" s="77">
+        <v>43941</v>
+      </c>
+      <c r="C17" s="25">
+        <v>2020</v>
+      </c>
+      <c r="D17" s="75">
+        <v>4</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="F17" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="G17" s="49">
+        <v>11.2</v>
+      </c>
+      <c r="H17" s="49">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="I17" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="J17" s="49">
+        <v>2020</v>
+      </c>
+      <c r="K17" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L17" s="49">
+        <v>73</v>
+      </c>
+      <c r="M17" s="49">
+        <v>61</v>
+      </c>
+      <c r="N17" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="O17" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="P17" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q17" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="R17" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="S17" s="25">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>164</v>
+      </c>
+      <c r="B18" s="77">
+        <v>43941</v>
+      </c>
+      <c r="C18" s="25">
+        <v>2020</v>
+      </c>
+      <c r="D18" s="75">
+        <v>4</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="F18" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="G18" s="49">
+        <v>11.2</v>
+      </c>
+      <c r="H18" s="49">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="I18" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="J18" s="49">
+        <v>2020</v>
+      </c>
+      <c r="K18" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L18" s="49">
+        <v>67</v>
+      </c>
+      <c r="M18" s="49">
+        <v>61</v>
+      </c>
+      <c r="N18" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="O18" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="P18" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q18" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="R18" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="S18" s="25">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>164</v>
+      </c>
+      <c r="B19" s="77">
+        <v>43941</v>
+      </c>
+      <c r="C19" s="25">
+        <v>2020</v>
+      </c>
+      <c r="D19" s="75">
+        <v>4</v>
+      </c>
+      <c r="E19" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="F19" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="G19" s="49">
+        <v>11.2</v>
+      </c>
+      <c r="H19" s="49">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="I19" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="J19" s="49">
+        <v>2020</v>
+      </c>
+      <c r="K19" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L19" s="49">
+        <v>60</v>
+      </c>
+      <c r="M19" s="49">
+        <v>50</v>
+      </c>
+      <c r="N19" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="O19" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="P19" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q19" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="R19" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="S19" s="25">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>164</v>
+      </c>
+      <c r="B20" s="77">
+        <v>43941</v>
+      </c>
+      <c r="C20" s="25">
+        <v>2020</v>
+      </c>
+      <c r="D20" s="75">
+        <v>4</v>
+      </c>
+      <c r="E20" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="F20" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="G20" s="49">
+        <v>11.2</v>
+      </c>
+      <c r="H20" s="49">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="I20" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="J20" s="49">
+        <v>2020</v>
+      </c>
+      <c r="K20" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L20" s="49">
+        <v>58</v>
+      </c>
+      <c r="M20" s="49">
+        <v>48</v>
+      </c>
+      <c r="N20" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="O20" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="P20" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q20" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="R20" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="S20" s="25">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>164</v>
+      </c>
+      <c r="B21" s="77">
+        <v>43941</v>
+      </c>
+      <c r="C21" s="25">
+        <v>2020</v>
+      </c>
+      <c r="D21" s="75">
+        <v>4</v>
+      </c>
+      <c r="E21" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="F21" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="G21" s="49">
+        <v>11.2</v>
+      </c>
+      <c r="H21" s="49">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="I21" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="J21" s="49">
+        <v>2020</v>
+      </c>
+      <c r="K21" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L21" s="49">
+        <v>67</v>
+      </c>
+      <c r="M21" s="49">
+        <v>58</v>
+      </c>
+      <c r="N21" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="O21" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="P21" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q21" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="R21" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="S21" s="25">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>182</v>
+      </c>
+      <c r="B22" s="77">
+        <v>43886</v>
+      </c>
+      <c r="C22" s="25">
+        <v>2020</v>
+      </c>
+      <c r="D22" s="75">
+        <v>2</v>
+      </c>
+      <c r="E22" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="F22" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="G22" s="78">
+        <v>1</v>
+      </c>
+      <c r="H22" s="78">
+        <v>2.5</v>
+      </c>
+      <c r="I22" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="J22" s="49">
+        <v>2020</v>
+      </c>
+      <c r="K22" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L22" s="49">
+        <v>48</v>
+      </c>
+      <c r="M22" s="49">
+        <v>40</v>
+      </c>
+      <c r="N22" t="s">
+        <v>168</v>
+      </c>
+      <c r="O22" t="s">
+        <v>169</v>
+      </c>
+      <c r="P22" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q22" s="25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>164</v>
+      </c>
+      <c r="B23" s="84">
+        <v>43889</v>
+      </c>
+      <c r="C23" s="25">
+        <v>2020</v>
+      </c>
+      <c r="D23" s="75">
+        <v>2</v>
+      </c>
+      <c r="E23" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="F23" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="G23" s="78">
+        <v>11.5</v>
+      </c>
+      <c r="H23" s="78">
+        <v>13.8</v>
+      </c>
+      <c r="I23" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="J23" s="49">
+        <v>2020</v>
+      </c>
+      <c r="K23" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L23" s="49">
+        <v>47</v>
+      </c>
+      <c r="M23" s="49">
+        <v>40</v>
+      </c>
+      <c r="N23" t="s">
+        <v>168</v>
+      </c>
+      <c r="O23" t="s">
+        <v>169</v>
+      </c>
+      <c r="P23" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q23" s="25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>164</v>
+      </c>
+      <c r="B24" s="77">
+        <v>43893</v>
+      </c>
+      <c r="C24" s="25">
+        <v>2020</v>
+      </c>
+      <c r="D24" s="75">
+        <v>3</v>
+      </c>
+      <c r="E24" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="F24" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="G24" s="78">
+        <v>3.3</v>
+      </c>
+      <c r="H24" s="78">
+        <v>6.4</v>
+      </c>
+      <c r="I24" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="J24" s="49">
+        <v>2020</v>
+      </c>
+      <c r="K24" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L24" s="49">
+        <v>46</v>
+      </c>
+      <c r="M24" s="49">
+        <v>38</v>
+      </c>
+      <c r="N24" t="s">
+        <v>168</v>
+      </c>
+      <c r="O24" t="s">
+        <v>169</v>
+      </c>
+      <c r="P24" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q24" s="25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>164</v>
+      </c>
+      <c r="B25" s="77">
+        <v>43900</v>
+      </c>
+      <c r="C25" s="25">
+        <v>2020</v>
+      </c>
+      <c r="D25" s="75">
+        <v>3</v>
+      </c>
+      <c r="E25" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="F25" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="G25" s="78">
+        <v>13.8</v>
+      </c>
+      <c r="H25" s="78">
+        <v>15.8</v>
+      </c>
+      <c r="I25" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="J25" s="49">
+        <v>2020</v>
+      </c>
+      <c r="K25" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L25" s="49">
+        <v>37</v>
+      </c>
+      <c r="M25" s="49">
+        <v>33</v>
+      </c>
+      <c r="N25" t="s">
+        <v>168</v>
+      </c>
+      <c r="O25" t="s">
+        <v>169</v>
+      </c>
+      <c r="P25" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q25" s="25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>164</v>
+      </c>
+      <c r="B26" s="77">
+        <v>43908</v>
+      </c>
+      <c r="C26" s="25">
+        <v>2020</v>
+      </c>
+      <c r="D26" s="75">
+        <v>3</v>
+      </c>
+      <c r="E26" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="F26" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="G26" s="78">
+        <v>17.5</v>
+      </c>
+      <c r="H26" s="78">
+        <v>18.7</v>
+      </c>
+      <c r="I26" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="J26" s="49">
+        <v>2020</v>
+      </c>
+      <c r="K26" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L26" s="49">
+        <v>46</v>
+      </c>
+      <c r="M26" s="49">
+        <v>39</v>
+      </c>
+      <c r="N26" t="s">
+        <v>168</v>
+      </c>
+      <c r="O26" t="s">
+        <v>169</v>
+      </c>
+      <c r="P26" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q26" s="25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>164</v>
+      </c>
+      <c r="B27" s="77">
+        <v>43913</v>
+      </c>
+      <c r="C27" s="25">
+        <v>2020</v>
+      </c>
+      <c r="D27" s="75">
+        <v>3</v>
+      </c>
+      <c r="E27" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="F27" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="G27" s="78">
+        <v>3.3</v>
+      </c>
+      <c r="H27" s="78">
+        <v>6.4</v>
+      </c>
+      <c r="I27" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="J27" s="49">
+        <v>2020</v>
+      </c>
+      <c r="K27" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L27" s="49">
+        <v>66</v>
+      </c>
+      <c r="M27" s="49">
+        <v>55</v>
+      </c>
+      <c r="N27" t="s">
+        <v>168</v>
+      </c>
+      <c r="O27" t="s">
+        <v>169</v>
+      </c>
+      <c r="P27" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q27" s="25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>164</v>
+      </c>
+      <c r="B28" s="77">
+        <v>43934</v>
+      </c>
+      <c r="C28" s="25">
+        <v>2020</v>
+      </c>
+      <c r="D28" s="75">
+        <v>4</v>
+      </c>
+      <c r="E28" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="F28" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="G28" s="78">
+        <v>3.3</v>
+      </c>
+      <c r="H28" s="78">
+        <v>6.4</v>
+      </c>
+      <c r="I28" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="J28" s="49">
+        <v>2020</v>
+      </c>
+      <c r="K28" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L28" s="49">
+        <v>54</v>
+      </c>
+      <c r="M28" s="49">
+        <v>44</v>
+      </c>
+      <c r="N28" t="s">
+        <v>168</v>
+      </c>
+      <c r="O28" t="s">
+        <v>169</v>
+      </c>
+      <c r="P28" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q28" s="25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F531D77F-A3F1-4F02-8772-17F9CA107C0E}">
   <dimension ref="A1:G44"/>
   <sheetViews>
@@ -7089,4 +12898,3234 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90E76ED8-0401-47C3-9130-5EFC3F3571D5}">
+  <dimension ref="A1:T59"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P25" sqref="P25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G1" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="H1" s="49" t="s">
+        <v>152</v>
+      </c>
+      <c r="I1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J1" s="49" t="s">
+        <v>153</v>
+      </c>
+      <c r="K1" t="s">
+        <v>154</v>
+      </c>
+      <c r="L1" s="49" t="s">
+        <v>155</v>
+      </c>
+      <c r="M1" s="49" t="s">
+        <v>156</v>
+      </c>
+      <c r="N1" t="s">
+        <v>157</v>
+      </c>
+      <c r="O1" t="s">
+        <v>158</v>
+      </c>
+      <c r="P1" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>160</v>
+      </c>
+      <c r="R1" t="s">
+        <v>161</v>
+      </c>
+      <c r="S1" t="s">
+        <v>162</v>
+      </c>
+      <c r="T1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B2" s="77">
+        <v>43496</v>
+      </c>
+      <c r="C2" s="25">
+        <v>2019</v>
+      </c>
+      <c r="D2" s="85">
+        <v>1</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="I2" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="J2" s="49">
+        <v>2019</v>
+      </c>
+      <c r="K2" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L2" s="49">
+        <v>33</v>
+      </c>
+      <c r="N2" t="s">
+        <v>168</v>
+      </c>
+      <c r="O2" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="P2" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q2" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="R2" s="25">
+        <v>4</v>
+      </c>
+      <c r="T2" s="82" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B3" s="77">
+        <v>43496</v>
+      </c>
+      <c r="C3" s="25">
+        <v>2019</v>
+      </c>
+      <c r="D3" s="85">
+        <v>1</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="I3" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="J3" s="49">
+        <v>2019</v>
+      </c>
+      <c r="K3" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L3" s="49">
+        <v>42</v>
+      </c>
+      <c r="M3" s="49">
+        <v>35</v>
+      </c>
+      <c r="N3" t="s">
+        <v>168</v>
+      </c>
+      <c r="O3" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="P3" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q3" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="R3" t="s">
+        <v>197</v>
+      </c>
+      <c r="T3" s="82" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B4" s="77">
+        <v>43525</v>
+      </c>
+      <c r="C4" s="25">
+        <v>2019</v>
+      </c>
+      <c r="D4" s="85">
+        <v>3</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="G4" s="49">
+        <v>13.8</v>
+      </c>
+      <c r="H4" s="49">
+        <v>11.2</v>
+      </c>
+      <c r="I4" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="49">
+        <v>2019</v>
+      </c>
+      <c r="K4" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L4" s="49">
+        <v>62</v>
+      </c>
+      <c r="M4" s="49">
+        <v>57</v>
+      </c>
+      <c r="N4" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="O4" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="P4" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q4" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="R4" t="s">
+        <v>190</v>
+      </c>
+      <c r="S4" s="25">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B5" s="77">
+        <v>43559</v>
+      </c>
+      <c r="C5" s="25">
+        <v>2019</v>
+      </c>
+      <c r="D5" s="85">
+        <v>4</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="G5" s="49">
+        <v>15.8</v>
+      </c>
+      <c r="H5" s="49">
+        <v>13.8</v>
+      </c>
+      <c r="I5" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="J5" s="49">
+        <v>2019</v>
+      </c>
+      <c r="K5" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L5" s="49">
+        <v>38</v>
+      </c>
+      <c r="M5" s="49">
+        <v>34</v>
+      </c>
+      <c r="N5" t="s">
+        <v>168</v>
+      </c>
+      <c r="O5" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="P5" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q5" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="R5" t="s">
+        <v>196</v>
+      </c>
+      <c r="T5" s="82" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>164</v>
+      </c>
+      <c r="B6" s="77">
+        <v>43560</v>
+      </c>
+      <c r="C6" s="25">
+        <v>2019</v>
+      </c>
+      <c r="D6" s="85">
+        <v>4</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="G6" s="49">
+        <v>11.2</v>
+      </c>
+      <c r="H6" s="49">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="I6" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="49">
+        <v>2019</v>
+      </c>
+      <c r="K6" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L6" s="49">
+        <v>76</v>
+      </c>
+      <c r="M6" s="49">
+        <v>70</v>
+      </c>
+      <c r="N6" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="O6" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="P6" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q6" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="R6" t="s">
+        <v>178</v>
+      </c>
+      <c r="S6" s="25">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>164</v>
+      </c>
+      <c r="B7" s="77">
+        <v>43560</v>
+      </c>
+      <c r="C7" s="25">
+        <v>2019</v>
+      </c>
+      <c r="D7" s="85">
+        <v>4</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="G7" s="49">
+        <v>11.2</v>
+      </c>
+      <c r="H7" s="49">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="I7" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="J7" s="49">
+        <v>2019</v>
+      </c>
+      <c r="K7" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L7" s="49">
+        <v>68</v>
+      </c>
+      <c r="M7" s="49">
+        <v>63</v>
+      </c>
+      <c r="N7" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="O7" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="P7" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q7" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="R7" t="s">
+        <v>190</v>
+      </c>
+      <c r="S7" s="25">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B8" s="77">
+        <v>43566</v>
+      </c>
+      <c r="C8" s="25">
+        <v>2019</v>
+      </c>
+      <c r="D8" s="85">
+        <v>4</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="G8" s="49">
+        <v>6.4</v>
+      </c>
+      <c r="H8" s="49">
+        <v>3.3</v>
+      </c>
+      <c r="I8" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8" s="49">
+        <v>2019</v>
+      </c>
+      <c r="K8" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L8" s="49">
+        <v>68</v>
+      </c>
+      <c r="M8" s="49">
+        <v>63</v>
+      </c>
+      <c r="N8" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="O8" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="P8" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q8" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="R8" t="s">
+        <v>181</v>
+      </c>
+      <c r="S8" s="25">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>164</v>
+      </c>
+      <c r="B9" s="77">
+        <v>43566</v>
+      </c>
+      <c r="C9" s="25">
+        <v>2019</v>
+      </c>
+      <c r="D9" s="85">
+        <v>4</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="G9" s="49">
+        <v>6.4</v>
+      </c>
+      <c r="H9" s="49">
+        <v>3.3</v>
+      </c>
+      <c r="I9" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="J9" s="49">
+        <v>2019</v>
+      </c>
+      <c r="K9" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L9" s="49">
+        <v>65</v>
+      </c>
+      <c r="M9" s="49">
+        <v>62</v>
+      </c>
+      <c r="N9" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="O9" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="P9" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q9" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="R9" t="s">
+        <v>187</v>
+      </c>
+      <c r="S9" s="25">
+        <v>2016</v>
+      </c>
+      <c r="T9" s="83" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>164</v>
+      </c>
+      <c r="B10" s="77">
+        <v>43570</v>
+      </c>
+      <c r="C10" s="25">
+        <v>2019</v>
+      </c>
+      <c r="D10" s="85">
+        <v>4</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="G10" s="49">
+        <v>3.3</v>
+      </c>
+      <c r="H10" s="49">
+        <v>0.5</v>
+      </c>
+      <c r="I10" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10" s="49">
+        <v>2019</v>
+      </c>
+      <c r="K10" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L10" s="49">
+        <v>85</v>
+      </c>
+      <c r="M10" s="49">
+        <v>72</v>
+      </c>
+      <c r="N10" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="O10" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="P10" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q10" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="R10" t="s">
+        <v>188</v>
+      </c>
+      <c r="S10" s="25">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>164</v>
+      </c>
+      <c r="B11" s="77">
+        <v>43572</v>
+      </c>
+      <c r="C11" s="25">
+        <v>2019</v>
+      </c>
+      <c r="D11" s="85">
+        <v>4</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="G11" s="49">
+        <v>15.8</v>
+      </c>
+      <c r="H11" s="49">
+        <v>13.8</v>
+      </c>
+      <c r="I11" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="J11" s="49">
+        <v>2019</v>
+      </c>
+      <c r="K11" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L11" s="49">
+        <v>43</v>
+      </c>
+      <c r="M11" s="49">
+        <v>38</v>
+      </c>
+      <c r="N11" t="s">
+        <v>168</v>
+      </c>
+      <c r="O11" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="P11" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q11" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="R11" s="25">
+        <v>4</v>
+      </c>
+      <c r="T11" s="82" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>182</v>
+      </c>
+      <c r="B12" s="77">
+        <v>43572</v>
+      </c>
+      <c r="C12" s="25">
+        <v>2019</v>
+      </c>
+      <c r="D12" s="85">
+        <v>4</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="F12" t="s">
+        <v>198</v>
+      </c>
+      <c r="G12" s="49">
+        <v>2.5</v>
+      </c>
+      <c r="H12" s="49">
+        <v>1</v>
+      </c>
+      <c r="I12" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="J12" s="49">
+        <v>2019</v>
+      </c>
+      <c r="K12" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="N12" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="O12" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="P12" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q12" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="R12" t="s">
+        <v>181</v>
+      </c>
+      <c r="S12" s="25">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>164</v>
+      </c>
+      <c r="B13" s="77">
+        <v>43573</v>
+      </c>
+      <c r="C13" s="25">
+        <v>2019</v>
+      </c>
+      <c r="D13" s="85">
+        <v>4</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="G13" s="49">
+        <v>3.3</v>
+      </c>
+      <c r="H13" s="49">
+        <v>0.5</v>
+      </c>
+      <c r="I13" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="J13" s="49">
+        <v>2019</v>
+      </c>
+      <c r="K13" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L13" s="49">
+        <v>78</v>
+      </c>
+      <c r="M13" s="49">
+        <v>70</v>
+      </c>
+      <c r="N13" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="O13" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="P13" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q13" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="R13" t="s">
+        <v>178</v>
+      </c>
+      <c r="S13" s="25">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>164</v>
+      </c>
+      <c r="B14" s="77">
+        <v>43584</v>
+      </c>
+      <c r="C14" s="25">
+        <v>2019</v>
+      </c>
+      <c r="D14" s="85">
+        <v>4</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="F14" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="G14" s="49">
+        <v>6.4</v>
+      </c>
+      <c r="H14" s="49">
+        <v>3.3</v>
+      </c>
+      <c r="I14" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="J14" s="49">
+        <v>2019</v>
+      </c>
+      <c r="K14" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L14" s="49">
+        <v>75</v>
+      </c>
+      <c r="M14" s="49">
+        <v>68</v>
+      </c>
+      <c r="N14" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="O14" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="P14" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q14" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="R14" t="s">
+        <v>178</v>
+      </c>
+      <c r="S14" s="25">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>164</v>
+      </c>
+      <c r="B15" s="77">
+        <v>43585</v>
+      </c>
+      <c r="C15" s="25">
+        <v>2019</v>
+      </c>
+      <c r="D15" s="85">
+        <v>4</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="F15" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="G15" s="49">
+        <v>11.2</v>
+      </c>
+      <c r="H15" s="49">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="I15" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="J15" s="49">
+        <v>2019</v>
+      </c>
+      <c r="K15" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L15" s="49">
+        <v>68</v>
+      </c>
+      <c r="M15" s="49">
+        <v>62</v>
+      </c>
+      <c r="N15" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="O15" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="P15" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q15" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="R15" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>164</v>
+      </c>
+      <c r="B16" s="77">
+        <v>43586</v>
+      </c>
+      <c r="C16" s="25">
+        <v>2019</v>
+      </c>
+      <c r="D16" s="85">
+        <v>5</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="F16" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="G16" s="49">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="H16" s="49">
+        <v>6.4</v>
+      </c>
+      <c r="I16" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="J16" s="49">
+        <v>2019</v>
+      </c>
+      <c r="K16" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L16" s="49">
+        <v>69</v>
+      </c>
+      <c r="M16" s="49">
+        <v>62</v>
+      </c>
+      <c r="N16" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="O16" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="P16" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q16" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="R16" t="s">
+        <v>181</v>
+      </c>
+      <c r="S16" s="25">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>182</v>
+      </c>
+      <c r="B17" s="77">
+        <v>43588</v>
+      </c>
+      <c r="C17" s="25">
+        <v>2019</v>
+      </c>
+      <c r="D17" s="85">
+        <v>5</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="F17" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="G17" s="49">
+        <v>5.2</v>
+      </c>
+      <c r="H17" s="49">
+        <v>2.5</v>
+      </c>
+      <c r="I17" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="J17" s="49">
+        <v>2019</v>
+      </c>
+      <c r="K17" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L17" s="49">
+        <v>35</v>
+      </c>
+      <c r="M17" s="49">
+        <v>31</v>
+      </c>
+      <c r="N17" t="s">
+        <v>168</v>
+      </c>
+      <c r="O17" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="P17" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q17" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="R17" s="25">
+        <v>5</v>
+      </c>
+      <c r="T17" s="82" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>164</v>
+      </c>
+      <c r="B18" s="77">
+        <v>43627</v>
+      </c>
+      <c r="C18" s="25">
+        <v>2019</v>
+      </c>
+      <c r="D18" s="85">
+        <v>6</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="F18" s="25" t="s">
+        <v>193</v>
+      </c>
+      <c r="I18" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="J18" s="49">
+        <v>2019</v>
+      </c>
+      <c r="K18" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L18" s="49">
+        <v>30.5</v>
+      </c>
+      <c r="M18" s="49">
+        <v>24.5</v>
+      </c>
+      <c r="N18" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="O18" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="P18" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q18" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="R18" s="25">
+        <v>4</v>
+      </c>
+      <c r="T18" s="82" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>164</v>
+      </c>
+      <c r="B19" s="77">
+        <v>43559</v>
+      </c>
+      <c r="C19" s="25">
+        <v>2019</v>
+      </c>
+      <c r="D19" s="75">
+        <v>4</v>
+      </c>
+      <c r="E19" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="F19" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="G19" s="78">
+        <v>13.8</v>
+      </c>
+      <c r="H19" s="78">
+        <v>15.8</v>
+      </c>
+      <c r="I19" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="J19" s="49">
+        <v>2019</v>
+      </c>
+      <c r="K19" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L19" s="49">
+        <v>56</v>
+      </c>
+      <c r="M19" s="49">
+        <v>52</v>
+      </c>
+      <c r="N19" t="s">
+        <v>168</v>
+      </c>
+      <c r="O19" t="s">
+        <v>169</v>
+      </c>
+      <c r="P19" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q19" s="25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>164</v>
+      </c>
+      <c r="B20" s="77">
+        <v>43559</v>
+      </c>
+      <c r="C20" s="25">
+        <v>2019</v>
+      </c>
+      <c r="D20" s="75">
+        <v>4</v>
+      </c>
+      <c r="E20" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="F20" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="G20" s="78">
+        <v>13.8</v>
+      </c>
+      <c r="H20" s="78">
+        <v>15.8</v>
+      </c>
+      <c r="I20" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="J20" s="49">
+        <v>2019</v>
+      </c>
+      <c r="K20" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L20" s="49">
+        <v>46</v>
+      </c>
+      <c r="M20" s="49">
+        <v>42</v>
+      </c>
+      <c r="N20" t="s">
+        <v>168</v>
+      </c>
+      <c r="O20" t="s">
+        <v>169</v>
+      </c>
+      <c r="P20" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q20" s="25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>164</v>
+      </c>
+      <c r="B21" s="77">
+        <v>43567</v>
+      </c>
+      <c r="C21" s="25">
+        <v>2019</v>
+      </c>
+      <c r="D21" s="75">
+        <v>4</v>
+      </c>
+      <c r="E21" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="F21" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="G21" s="78">
+        <v>6.4</v>
+      </c>
+      <c r="H21" s="78">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="I21" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="J21" s="49">
+        <v>2019</v>
+      </c>
+      <c r="K21" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L21" s="49">
+        <v>42</v>
+      </c>
+      <c r="M21" s="49">
+        <v>39</v>
+      </c>
+      <c r="N21" t="s">
+        <v>168</v>
+      </c>
+      <c r="O21" t="s">
+        <v>169</v>
+      </c>
+      <c r="P21" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q21" s="25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>164</v>
+      </c>
+      <c r="B22" s="77">
+        <v>43567</v>
+      </c>
+      <c r="C22" s="25">
+        <v>2019</v>
+      </c>
+      <c r="D22" s="75">
+        <v>4</v>
+      </c>
+      <c r="E22" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="F22" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="G22" s="78">
+        <v>6.4</v>
+      </c>
+      <c r="H22" s="78">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="I22" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="J22" s="49">
+        <v>2019</v>
+      </c>
+      <c r="K22" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L22" s="49">
+        <v>40</v>
+      </c>
+      <c r="M22" s="49">
+        <v>36</v>
+      </c>
+      <c r="N22" t="s">
+        <v>168</v>
+      </c>
+      <c r="O22" t="s">
+        <v>169</v>
+      </c>
+      <c r="P22" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q22" s="25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>164</v>
+      </c>
+      <c r="B23" s="77">
+        <v>43570</v>
+      </c>
+      <c r="C23" s="25">
+        <v>2019</v>
+      </c>
+      <c r="D23" s="75">
+        <v>4</v>
+      </c>
+      <c r="E23" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="F23" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="G23" s="78">
+        <v>11.5</v>
+      </c>
+      <c r="H23" s="78">
+        <v>13.8</v>
+      </c>
+      <c r="I23" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="J23" s="49">
+        <v>2019</v>
+      </c>
+      <c r="K23" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L23" s="49">
+        <v>40</v>
+      </c>
+      <c r="M23" s="49">
+        <v>37</v>
+      </c>
+      <c r="N23" t="s">
+        <v>168</v>
+      </c>
+      <c r="O23" t="s">
+        <v>169</v>
+      </c>
+      <c r="P23" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q23" s="25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>164</v>
+      </c>
+      <c r="B24" s="77">
+        <v>43570</v>
+      </c>
+      <c r="C24" s="25">
+        <v>2019</v>
+      </c>
+      <c r="D24" s="75">
+        <v>4</v>
+      </c>
+      <c r="E24" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="F24" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="G24" s="78">
+        <v>11.5</v>
+      </c>
+      <c r="H24" s="78">
+        <v>13.8</v>
+      </c>
+      <c r="I24" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="J24" s="49">
+        <v>2019</v>
+      </c>
+      <c r="K24" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L24" s="49">
+        <v>52</v>
+      </c>
+      <c r="M24" s="49">
+        <v>49</v>
+      </c>
+      <c r="N24" t="s">
+        <v>168</v>
+      </c>
+      <c r="O24" t="s">
+        <v>169</v>
+      </c>
+      <c r="P24" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q24" s="25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>164</v>
+      </c>
+      <c r="B25" s="77">
+        <v>43570</v>
+      </c>
+      <c r="C25" s="25">
+        <v>2019</v>
+      </c>
+      <c r="D25" s="75">
+        <v>4</v>
+      </c>
+      <c r="E25" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="F25" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="G25" s="78">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="H25" s="78">
+        <v>11.2</v>
+      </c>
+      <c r="I25" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="J25" s="49">
+        <v>2019</v>
+      </c>
+      <c r="K25" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L25" s="49">
+        <v>37.5</v>
+      </c>
+      <c r="M25" s="49">
+        <v>33.5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>168</v>
+      </c>
+      <c r="O25" t="s">
+        <v>169</v>
+      </c>
+      <c r="P25" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q25" s="25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>164</v>
+      </c>
+      <c r="B26" s="77">
+        <v>43572</v>
+      </c>
+      <c r="C26" s="25">
+        <v>2019</v>
+      </c>
+      <c r="D26" s="75">
+        <v>4</v>
+      </c>
+      <c r="E26" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="F26" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="G26" s="78">
+        <v>13.8</v>
+      </c>
+      <c r="H26" s="78">
+        <v>15.8</v>
+      </c>
+      <c r="I26" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="J26" s="49">
+        <v>2019</v>
+      </c>
+      <c r="K26" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L26" s="49">
+        <v>43</v>
+      </c>
+      <c r="M26" s="49">
+        <v>40</v>
+      </c>
+      <c r="N26" t="s">
+        <v>168</v>
+      </c>
+      <c r="O26" t="s">
+        <v>169</v>
+      </c>
+      <c r="P26" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q26" s="25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>164</v>
+      </c>
+      <c r="B27" s="77">
+        <v>43572</v>
+      </c>
+      <c r="C27" s="25">
+        <v>2019</v>
+      </c>
+      <c r="D27" s="75">
+        <v>4</v>
+      </c>
+      <c r="E27" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="F27" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="G27" s="78">
+        <v>13.8</v>
+      </c>
+      <c r="H27" s="78">
+        <v>15.8</v>
+      </c>
+      <c r="I27" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="J27" s="49">
+        <v>2019</v>
+      </c>
+      <c r="K27" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L27" s="49">
+        <v>56</v>
+      </c>
+      <c r="M27" s="49">
+        <v>50</v>
+      </c>
+      <c r="N27" t="s">
+        <v>168</v>
+      </c>
+      <c r="O27" t="s">
+        <v>169</v>
+      </c>
+      <c r="P27" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q27" s="25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>164</v>
+      </c>
+      <c r="B28" s="77">
+        <v>43572</v>
+      </c>
+      <c r="C28" s="25">
+        <v>2019</v>
+      </c>
+      <c r="D28" s="75">
+        <v>4</v>
+      </c>
+      <c r="E28" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="F28" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="G28" s="78">
+        <v>13.8</v>
+      </c>
+      <c r="H28" s="78">
+        <v>15.8</v>
+      </c>
+      <c r="I28" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="J28" s="49">
+        <v>2019</v>
+      </c>
+      <c r="K28" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L28" s="49">
+        <v>38</v>
+      </c>
+      <c r="M28" s="49">
+        <v>35</v>
+      </c>
+      <c r="N28" t="s">
+        <v>168</v>
+      </c>
+      <c r="O28" t="s">
+        <v>169</v>
+      </c>
+      <c r="P28" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q28" s="25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>182</v>
+      </c>
+      <c r="B29" s="77">
+        <v>43572</v>
+      </c>
+      <c r="C29" s="25">
+        <v>2019</v>
+      </c>
+      <c r="D29" s="75">
+        <v>4</v>
+      </c>
+      <c r="E29" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="F29" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="G29" s="78">
+        <v>1</v>
+      </c>
+      <c r="H29" s="78">
+        <v>2.5</v>
+      </c>
+      <c r="I29" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="J29" s="49">
+        <v>2019</v>
+      </c>
+      <c r="K29" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L29" s="49">
+        <v>48</v>
+      </c>
+      <c r="M29" s="49">
+        <v>44</v>
+      </c>
+      <c r="N29" t="s">
+        <v>168</v>
+      </c>
+      <c r="O29" t="s">
+        <v>169</v>
+      </c>
+      <c r="P29" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q29" s="25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>182</v>
+      </c>
+      <c r="B30" s="77">
+        <v>43572</v>
+      </c>
+      <c r="C30" s="25">
+        <v>2019</v>
+      </c>
+      <c r="D30" s="75">
+        <v>4</v>
+      </c>
+      <c r="E30" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="F30" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="G30" s="78">
+        <v>1</v>
+      </c>
+      <c r="H30" s="78">
+        <v>2.5</v>
+      </c>
+      <c r="I30" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="J30" s="49">
+        <v>2019</v>
+      </c>
+      <c r="K30" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L30" s="49">
+        <v>47</v>
+      </c>
+      <c r="M30" s="49">
+        <v>43.5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>168</v>
+      </c>
+      <c r="O30" t="s">
+        <v>169</v>
+      </c>
+      <c r="P30" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q30" s="25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>164</v>
+      </c>
+      <c r="B31" s="77">
+        <v>43585</v>
+      </c>
+      <c r="C31" s="25">
+        <v>2019</v>
+      </c>
+      <c r="D31" s="75">
+        <v>4</v>
+      </c>
+      <c r="E31" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="F31" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="G31" s="78">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="H31" s="78">
+        <v>11.2</v>
+      </c>
+      <c r="I31" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="J31" s="49">
+        <v>2019</v>
+      </c>
+      <c r="K31" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L31" s="49">
+        <v>52</v>
+      </c>
+      <c r="M31" s="49">
+        <v>47</v>
+      </c>
+      <c r="N31" t="s">
+        <v>168</v>
+      </c>
+      <c r="O31" t="s">
+        <v>169</v>
+      </c>
+      <c r="P31" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q31" s="25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>182</v>
+      </c>
+      <c r="B32" s="77">
+        <v>43587</v>
+      </c>
+      <c r="C32" s="25">
+        <v>2019</v>
+      </c>
+      <c r="D32" s="75">
+        <v>5</v>
+      </c>
+      <c r="E32" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="F32" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="G32" s="78">
+        <v>1</v>
+      </c>
+      <c r="H32" s="78">
+        <v>2.5</v>
+      </c>
+      <c r="I32" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="J32" s="49">
+        <v>2019</v>
+      </c>
+      <c r="K32" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L32" s="49">
+        <v>37</v>
+      </c>
+      <c r="M32" s="49">
+        <v>33</v>
+      </c>
+      <c r="N32" t="s">
+        <v>168</v>
+      </c>
+      <c r="O32" t="s">
+        <v>169</v>
+      </c>
+      <c r="P32" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q32" s="25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>182</v>
+      </c>
+      <c r="B33" s="77">
+        <v>43587</v>
+      </c>
+      <c r="C33" s="25">
+        <v>2019</v>
+      </c>
+      <c r="D33" s="75">
+        <v>5</v>
+      </c>
+      <c r="E33" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="F33" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="G33" s="78">
+        <v>1</v>
+      </c>
+      <c r="H33" s="78">
+        <v>2.5</v>
+      </c>
+      <c r="I33" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="J33" s="49">
+        <v>2019</v>
+      </c>
+      <c r="K33" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L33" s="49">
+        <v>43</v>
+      </c>
+      <c r="M33" s="49">
+        <v>39.5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>168</v>
+      </c>
+      <c r="O33" t="s">
+        <v>169</v>
+      </c>
+      <c r="P33" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q33" s="25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>182</v>
+      </c>
+      <c r="B34" s="77">
+        <v>43587</v>
+      </c>
+      <c r="C34" s="25">
+        <v>2019</v>
+      </c>
+      <c r="D34" s="75">
+        <v>5</v>
+      </c>
+      <c r="E34" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="F34" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="G34" s="78">
+        <v>1</v>
+      </c>
+      <c r="H34" s="78">
+        <v>2.5</v>
+      </c>
+      <c r="I34" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="J34" s="49">
+        <v>2019</v>
+      </c>
+      <c r="K34" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L34" s="49">
+        <v>39</v>
+      </c>
+      <c r="M34" s="49">
+        <v>35.5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>168</v>
+      </c>
+      <c r="O34" t="s">
+        <v>169</v>
+      </c>
+      <c r="P34" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q34" s="25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>182</v>
+      </c>
+      <c r="B35" s="77">
+        <v>43588</v>
+      </c>
+      <c r="C35" s="25">
+        <v>2019</v>
+      </c>
+      <c r="D35" s="75">
+        <v>5</v>
+      </c>
+      <c r="E35" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="F35" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="G35" s="78">
+        <v>0</v>
+      </c>
+      <c r="H35" s="78">
+        <v>1</v>
+      </c>
+      <c r="I35" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="J35" s="49">
+        <v>2019</v>
+      </c>
+      <c r="K35" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L35" s="49">
+        <v>42</v>
+      </c>
+      <c r="M35" s="49">
+        <v>38</v>
+      </c>
+      <c r="N35" t="s">
+        <v>168</v>
+      </c>
+      <c r="O35" t="s">
+        <v>169</v>
+      </c>
+      <c r="P35" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q35" s="25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>164</v>
+      </c>
+      <c r="B36" s="77">
+        <v>43627</v>
+      </c>
+      <c r="C36" s="25">
+        <v>2019</v>
+      </c>
+      <c r="D36" s="75">
+        <v>6</v>
+      </c>
+      <c r="E36" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="F36" s="25" t="s">
+        <v>193</v>
+      </c>
+      <c r="G36" s="86">
+        <v>9.6</v>
+      </c>
+      <c r="H36" s="86">
+        <v>10</v>
+      </c>
+      <c r="I36" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="J36" s="49">
+        <v>2019</v>
+      </c>
+      <c r="K36" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L36" s="49">
+        <v>36</v>
+      </c>
+      <c r="M36" s="49" t="s">
+        <v>173</v>
+      </c>
+      <c r="N36" t="s">
+        <v>168</v>
+      </c>
+      <c r="O36" t="s">
+        <v>169</v>
+      </c>
+      <c r="P36" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q36" s="25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>164</v>
+      </c>
+      <c r="B37" s="77">
+        <v>43627</v>
+      </c>
+      <c r="C37" s="25">
+        <v>2019</v>
+      </c>
+      <c r="D37" s="75">
+        <v>6</v>
+      </c>
+      <c r="E37" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="F37" s="25" t="s">
+        <v>193</v>
+      </c>
+      <c r="G37" s="86">
+        <v>9.6</v>
+      </c>
+      <c r="H37" s="86">
+        <v>10</v>
+      </c>
+      <c r="I37" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="J37" s="49">
+        <v>2019</v>
+      </c>
+      <c r="K37" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L37" s="49">
+        <v>47</v>
+      </c>
+      <c r="M37" s="49" t="s">
+        <v>173</v>
+      </c>
+      <c r="N37" t="s">
+        <v>168</v>
+      </c>
+      <c r="O37" t="s">
+        <v>169</v>
+      </c>
+      <c r="P37" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q37" s="25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>164</v>
+      </c>
+      <c r="B38" s="77">
+        <v>43627</v>
+      </c>
+      <c r="C38" s="25">
+        <v>2019</v>
+      </c>
+      <c r="D38" s="75">
+        <v>6</v>
+      </c>
+      <c r="E38" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="F38" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="G38" s="86">
+        <v>9.6</v>
+      </c>
+      <c r="H38" s="86">
+        <v>10</v>
+      </c>
+      <c r="I38" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="J38" s="49">
+        <v>2019</v>
+      </c>
+      <c r="K38" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L38" s="49">
+        <v>59</v>
+      </c>
+      <c r="M38" s="49" t="s">
+        <v>173</v>
+      </c>
+      <c r="N38" t="s">
+        <v>168</v>
+      </c>
+      <c r="O38" t="s">
+        <v>169</v>
+      </c>
+      <c r="P38" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q38" s="25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>164</v>
+      </c>
+      <c r="B39" s="77">
+        <v>43627</v>
+      </c>
+      <c r="C39" s="25">
+        <v>2019</v>
+      </c>
+      <c r="D39" s="75">
+        <v>6</v>
+      </c>
+      <c r="E39" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="F39" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="G39" s="86">
+        <v>9.6</v>
+      </c>
+      <c r="H39" s="86">
+        <v>10</v>
+      </c>
+      <c r="I39" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="J39" s="49">
+        <v>2019</v>
+      </c>
+      <c r="K39" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L39" s="49">
+        <v>55</v>
+      </c>
+      <c r="M39" s="49" t="s">
+        <v>173</v>
+      </c>
+      <c r="N39" t="s">
+        <v>168</v>
+      </c>
+      <c r="O39" t="s">
+        <v>169</v>
+      </c>
+      <c r="P39" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q39" s="25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>164</v>
+      </c>
+      <c r="B40" s="77">
+        <v>43627</v>
+      </c>
+      <c r="C40" s="25">
+        <v>2019</v>
+      </c>
+      <c r="D40" s="75">
+        <v>6</v>
+      </c>
+      <c r="E40" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="F40" s="25" t="s">
+        <v>193</v>
+      </c>
+      <c r="G40" s="86">
+        <v>9.6</v>
+      </c>
+      <c r="H40" s="86">
+        <v>10</v>
+      </c>
+      <c r="I40" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="J40" s="49">
+        <v>2019</v>
+      </c>
+      <c r="K40" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L40" s="49">
+        <v>26</v>
+      </c>
+      <c r="M40" s="49" t="s">
+        <v>173</v>
+      </c>
+      <c r="N40" t="s">
+        <v>168</v>
+      </c>
+      <c r="O40" t="s">
+        <v>169</v>
+      </c>
+      <c r="P40" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q40" s="25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>164</v>
+      </c>
+      <c r="B41" s="77">
+        <v>43627</v>
+      </c>
+      <c r="C41" s="25">
+        <v>2019</v>
+      </c>
+      <c r="D41" s="75">
+        <v>6</v>
+      </c>
+      <c r="E41" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="F41" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="G41" s="86">
+        <v>9.6</v>
+      </c>
+      <c r="H41" s="86">
+        <v>10</v>
+      </c>
+      <c r="I41" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="J41" s="49">
+        <v>2019</v>
+      </c>
+      <c r="K41" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L41" s="49">
+        <v>36</v>
+      </c>
+      <c r="M41" s="49" t="s">
+        <v>173</v>
+      </c>
+      <c r="N41" t="s">
+        <v>168</v>
+      </c>
+      <c r="O41" t="s">
+        <v>169</v>
+      </c>
+      <c r="P41" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q41" s="25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>164</v>
+      </c>
+      <c r="B42" s="77">
+        <v>43627</v>
+      </c>
+      <c r="C42" s="25">
+        <v>2019</v>
+      </c>
+      <c r="D42" s="75">
+        <v>6</v>
+      </c>
+      <c r="E42" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="F42" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="G42" s="86">
+        <v>9.6</v>
+      </c>
+      <c r="H42" s="86">
+        <v>10</v>
+      </c>
+      <c r="I42" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="J42" s="49">
+        <v>2019</v>
+      </c>
+      <c r="K42" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L42" s="49">
+        <v>65.5</v>
+      </c>
+      <c r="M42" s="49" t="s">
+        <v>173</v>
+      </c>
+      <c r="N42" t="s">
+        <v>168</v>
+      </c>
+      <c r="O42" t="s">
+        <v>169</v>
+      </c>
+      <c r="P42" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q42" s="25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>164</v>
+      </c>
+      <c r="B43" s="77">
+        <v>43627</v>
+      </c>
+      <c r="C43" s="25">
+        <v>2019</v>
+      </c>
+      <c r="D43" s="75">
+        <v>6</v>
+      </c>
+      <c r="E43" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="F43" s="25" t="s">
+        <v>193</v>
+      </c>
+      <c r="G43" s="86">
+        <v>9.6</v>
+      </c>
+      <c r="H43" s="86">
+        <v>10</v>
+      </c>
+      <c r="I43" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="J43" s="49">
+        <v>2019</v>
+      </c>
+      <c r="K43" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L43" s="49">
+        <v>54.5</v>
+      </c>
+      <c r="M43" s="49" t="s">
+        <v>173</v>
+      </c>
+      <c r="N43" t="s">
+        <v>168</v>
+      </c>
+      <c r="O43" t="s">
+        <v>169</v>
+      </c>
+      <c r="P43" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q43" s="25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>164</v>
+      </c>
+      <c r="B44" s="77">
+        <v>43627</v>
+      </c>
+      <c r="C44" s="25">
+        <v>2019</v>
+      </c>
+      <c r="D44" s="75">
+        <v>6</v>
+      </c>
+      <c r="E44" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="F44" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="G44" s="86">
+        <v>9.6</v>
+      </c>
+      <c r="H44" s="86">
+        <v>10</v>
+      </c>
+      <c r="I44" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="J44" s="49">
+        <v>2019</v>
+      </c>
+      <c r="K44" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L44" s="49">
+        <v>42.5</v>
+      </c>
+      <c r="M44" s="49" t="s">
+        <v>173</v>
+      </c>
+      <c r="N44" t="s">
+        <v>168</v>
+      </c>
+      <c r="O44" t="s">
+        <v>169</v>
+      </c>
+      <c r="P44" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q44" s="25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>164</v>
+      </c>
+      <c r="B45" s="77">
+        <v>43627</v>
+      </c>
+      <c r="C45" s="25">
+        <v>2019</v>
+      </c>
+      <c r="D45" s="75">
+        <v>6</v>
+      </c>
+      <c r="E45" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="F45" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="G45" s="86">
+        <v>9.6</v>
+      </c>
+      <c r="H45" s="86">
+        <v>10</v>
+      </c>
+      <c r="I45" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="J45" s="49">
+        <v>2019</v>
+      </c>
+      <c r="K45" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L45" s="49">
+        <v>40</v>
+      </c>
+      <c r="M45" s="49" t="s">
+        <v>173</v>
+      </c>
+      <c r="N45" t="s">
+        <v>168</v>
+      </c>
+      <c r="O45" t="s">
+        <v>169</v>
+      </c>
+      <c r="P45" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q45" s="25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>164</v>
+      </c>
+      <c r="B46" s="77">
+        <v>43627</v>
+      </c>
+      <c r="C46" s="25">
+        <v>2019</v>
+      </c>
+      <c r="D46" s="75">
+        <v>6</v>
+      </c>
+      <c r="E46" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="F46" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="G46" s="86">
+        <v>9.6</v>
+      </c>
+      <c r="H46" s="86">
+        <v>10</v>
+      </c>
+      <c r="I46" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="J46" s="49">
+        <v>2019</v>
+      </c>
+      <c r="K46" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L46" s="49">
+        <v>40</v>
+      </c>
+      <c r="M46" s="49" t="s">
+        <v>173</v>
+      </c>
+      <c r="N46" t="s">
+        <v>168</v>
+      </c>
+      <c r="O46" t="s">
+        <v>169</v>
+      </c>
+      <c r="P46" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q46" s="25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>164</v>
+      </c>
+      <c r="B47" s="77">
+        <v>43627</v>
+      </c>
+      <c r="C47" s="25">
+        <v>2019</v>
+      </c>
+      <c r="D47" s="75">
+        <v>6</v>
+      </c>
+      <c r="E47" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="F47" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="G47" s="86">
+        <v>9.6</v>
+      </c>
+      <c r="H47" s="86">
+        <v>10</v>
+      </c>
+      <c r="I47" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="J47" s="49">
+        <v>2019</v>
+      </c>
+      <c r="K47" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L47" s="49">
+        <v>63</v>
+      </c>
+      <c r="M47" s="49" t="s">
+        <v>173</v>
+      </c>
+      <c r="N47" t="s">
+        <v>168</v>
+      </c>
+      <c r="O47" t="s">
+        <v>169</v>
+      </c>
+      <c r="P47" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q47" s="25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>164</v>
+      </c>
+      <c r="B48" s="77">
+        <v>43627</v>
+      </c>
+      <c r="C48" s="25">
+        <v>2019</v>
+      </c>
+      <c r="D48" s="75">
+        <v>6</v>
+      </c>
+      <c r="E48" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="F48" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="G48" s="86">
+        <v>9.6</v>
+      </c>
+      <c r="H48" s="86">
+        <v>10</v>
+      </c>
+      <c r="I48" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="J48" s="49">
+        <v>2019</v>
+      </c>
+      <c r="K48" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L48" s="49">
+        <v>62</v>
+      </c>
+      <c r="M48" s="49" t="s">
+        <v>173</v>
+      </c>
+      <c r="N48" t="s">
+        <v>168</v>
+      </c>
+      <c r="O48" t="s">
+        <v>169</v>
+      </c>
+      <c r="P48" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q48" s="25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>164</v>
+      </c>
+      <c r="B49" s="77">
+        <v>43634</v>
+      </c>
+      <c r="C49" s="25">
+        <v>2019</v>
+      </c>
+      <c r="D49" s="75">
+        <v>6</v>
+      </c>
+      <c r="E49" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="F49" s="25" t="s">
+        <v>193</v>
+      </c>
+      <c r="G49" s="86">
+        <v>6</v>
+      </c>
+      <c r="H49" s="86">
+        <v>6.4</v>
+      </c>
+      <c r="I49" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="J49" s="49">
+        <v>2019</v>
+      </c>
+      <c r="K49" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L49" s="49">
+        <v>62.2</v>
+      </c>
+      <c r="M49" s="49" t="s">
+        <v>173</v>
+      </c>
+      <c r="N49" t="s">
+        <v>168</v>
+      </c>
+      <c r="O49" t="s">
+        <v>169</v>
+      </c>
+      <c r="P49" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q49" s="25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>164</v>
+      </c>
+      <c r="B50" s="77">
+        <v>43634</v>
+      </c>
+      <c r="C50" s="25">
+        <v>2019</v>
+      </c>
+      <c r="D50" s="75">
+        <v>6</v>
+      </c>
+      <c r="E50" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="F50" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="G50" s="86">
+        <v>6</v>
+      </c>
+      <c r="H50" s="86">
+        <v>6.4</v>
+      </c>
+      <c r="I50" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="J50" s="49">
+        <v>2019</v>
+      </c>
+      <c r="K50" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L50" s="49">
+        <v>46</v>
+      </c>
+      <c r="M50" s="49" t="s">
+        <v>173</v>
+      </c>
+      <c r="N50" t="s">
+        <v>168</v>
+      </c>
+      <c r="O50" t="s">
+        <v>169</v>
+      </c>
+      <c r="P50" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q50" s="25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>164</v>
+      </c>
+      <c r="B51" s="77">
+        <v>43634</v>
+      </c>
+      <c r="C51" s="25">
+        <v>2019</v>
+      </c>
+      <c r="D51" s="75">
+        <v>6</v>
+      </c>
+      <c r="E51" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="F51" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="G51" s="86">
+        <v>6</v>
+      </c>
+      <c r="H51" s="86">
+        <v>6.4</v>
+      </c>
+      <c r="I51" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="J51" s="49">
+        <v>2019</v>
+      </c>
+      <c r="K51" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L51" s="49">
+        <v>50</v>
+      </c>
+      <c r="M51" s="49" t="s">
+        <v>173</v>
+      </c>
+      <c r="N51" t="s">
+        <v>168</v>
+      </c>
+      <c r="O51" t="s">
+        <v>169</v>
+      </c>
+      <c r="P51" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q51" s="25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>164</v>
+      </c>
+      <c r="B52" s="77">
+        <v>43634</v>
+      </c>
+      <c r="C52" s="25">
+        <v>2019</v>
+      </c>
+      <c r="D52" s="75">
+        <v>6</v>
+      </c>
+      <c r="E52" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="F52" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="G52" s="86">
+        <v>6</v>
+      </c>
+      <c r="H52" s="86">
+        <v>6.4</v>
+      </c>
+      <c r="I52" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="J52" s="49">
+        <v>2019</v>
+      </c>
+      <c r="K52" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L52" s="49">
+        <v>56</v>
+      </c>
+      <c r="M52" s="49" t="s">
+        <v>173</v>
+      </c>
+      <c r="N52" t="s">
+        <v>168</v>
+      </c>
+      <c r="O52" t="s">
+        <v>169</v>
+      </c>
+      <c r="P52" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q52" s="25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>164</v>
+      </c>
+      <c r="B53" s="77">
+        <v>43634</v>
+      </c>
+      <c r="C53" s="25">
+        <v>2019</v>
+      </c>
+      <c r="D53" s="75">
+        <v>6</v>
+      </c>
+      <c r="E53" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="F53" s="25" t="s">
+        <v>193</v>
+      </c>
+      <c r="G53" s="86">
+        <v>6</v>
+      </c>
+      <c r="H53" s="86">
+        <v>6.4</v>
+      </c>
+      <c r="I53" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="J53" s="49">
+        <v>2019</v>
+      </c>
+      <c r="K53" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L53" s="49">
+        <v>36</v>
+      </c>
+      <c r="M53" s="49" t="s">
+        <v>173</v>
+      </c>
+      <c r="N53" t="s">
+        <v>168</v>
+      </c>
+      <c r="O53" t="s">
+        <v>169</v>
+      </c>
+      <c r="P53" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q53" s="25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>164</v>
+      </c>
+      <c r="B54" s="77">
+        <v>43634</v>
+      </c>
+      <c r="C54" s="25">
+        <v>2019</v>
+      </c>
+      <c r="D54" s="75">
+        <v>6</v>
+      </c>
+      <c r="E54" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="F54" s="25" t="s">
+        <v>193</v>
+      </c>
+      <c r="G54" s="86">
+        <v>6</v>
+      </c>
+      <c r="H54" s="86">
+        <v>6.4</v>
+      </c>
+      <c r="I54" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="J54" s="49">
+        <v>2019</v>
+      </c>
+      <c r="K54" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L54" s="49">
+        <v>49.5</v>
+      </c>
+      <c r="M54" s="49" t="s">
+        <v>173</v>
+      </c>
+      <c r="N54" t="s">
+        <v>168</v>
+      </c>
+      <c r="O54" t="s">
+        <v>169</v>
+      </c>
+      <c r="P54" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q54" s="25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>164</v>
+      </c>
+      <c r="B55" s="77">
+        <v>43634</v>
+      </c>
+      <c r="C55" s="25">
+        <v>2019</v>
+      </c>
+      <c r="D55" s="75">
+        <v>6</v>
+      </c>
+      <c r="E55" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="F55" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="G55" s="86">
+        <v>3.6</v>
+      </c>
+      <c r="H55" s="86">
+        <v>4</v>
+      </c>
+      <c r="I55" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="J55" s="49">
+        <v>2019</v>
+      </c>
+      <c r="K55" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L55" s="49">
+        <v>56</v>
+      </c>
+      <c r="M55" s="49" t="s">
+        <v>173</v>
+      </c>
+      <c r="N55" t="s">
+        <v>168</v>
+      </c>
+      <c r="O55" t="s">
+        <v>169</v>
+      </c>
+      <c r="P55" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q55" s="25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>164</v>
+      </c>
+      <c r="B56" s="77">
+        <v>43634</v>
+      </c>
+      <c r="C56" s="25">
+        <v>2019</v>
+      </c>
+      <c r="D56" s="75">
+        <v>6</v>
+      </c>
+      <c r="E56" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="F56" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="G56" s="86">
+        <v>3.6</v>
+      </c>
+      <c r="H56" s="86">
+        <v>4</v>
+      </c>
+      <c r="I56" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="J56" s="49">
+        <v>2019</v>
+      </c>
+      <c r="K56" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L56" s="49">
+        <v>63</v>
+      </c>
+      <c r="M56" s="49" t="s">
+        <v>173</v>
+      </c>
+      <c r="N56" t="s">
+        <v>168</v>
+      </c>
+      <c r="O56" t="s">
+        <v>169</v>
+      </c>
+      <c r="P56" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q56" s="25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>164</v>
+      </c>
+      <c r="B57" s="77">
+        <v>43634</v>
+      </c>
+      <c r="C57" s="25">
+        <v>2019</v>
+      </c>
+      <c r="D57" s="75">
+        <v>6</v>
+      </c>
+      <c r="E57" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="F57" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="G57" s="86">
+        <v>3.6</v>
+      </c>
+      <c r="H57" s="86">
+        <v>4</v>
+      </c>
+      <c r="I57" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="J57" s="49">
+        <v>2019</v>
+      </c>
+      <c r="K57" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L57" s="49">
+        <v>52.5</v>
+      </c>
+      <c r="M57" s="49" t="s">
+        <v>173</v>
+      </c>
+      <c r="N57" t="s">
+        <v>168</v>
+      </c>
+      <c r="O57" t="s">
+        <v>169</v>
+      </c>
+      <c r="P57" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q57" s="25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>164</v>
+      </c>
+      <c r="B58" s="77">
+        <v>43641</v>
+      </c>
+      <c r="C58" s="25">
+        <v>2019</v>
+      </c>
+      <c r="D58" s="75">
+        <v>6</v>
+      </c>
+      <c r="E58" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="F58" s="25" t="s">
+        <v>193</v>
+      </c>
+      <c r="G58" s="86">
+        <v>0.2</v>
+      </c>
+      <c r="H58" s="86">
+        <v>0.5</v>
+      </c>
+      <c r="I58" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="J58" s="49">
+        <v>2019</v>
+      </c>
+      <c r="K58" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L58" s="49">
+        <v>48.5</v>
+      </c>
+      <c r="M58" s="49" t="s">
+        <v>173</v>
+      </c>
+      <c r="N58" t="s">
+        <v>168</v>
+      </c>
+      <c r="O58" t="s">
+        <v>169</v>
+      </c>
+      <c r="P58" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q58" s="25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>164</v>
+      </c>
+      <c r="B59" s="77">
+        <v>43641</v>
+      </c>
+      <c r="C59" s="25">
+        <v>2019</v>
+      </c>
+      <c r="D59" s="75">
+        <v>6</v>
+      </c>
+      <c r="E59" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="F59" s="25" t="s">
+        <v>193</v>
+      </c>
+      <c r="G59" s="86">
+        <v>0.2</v>
+      </c>
+      <c r="H59" s="86">
+        <v>0.5</v>
+      </c>
+      <c r="I59" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="J59" s="49">
+        <v>2019</v>
+      </c>
+      <c r="K59" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L59" s="49">
+        <v>46.5</v>
+      </c>
+      <c r="M59" s="49" t="s">
+        <v>173</v>
+      </c>
+      <c r="N59" t="s">
+        <v>168</v>
+      </c>
+      <c r="O59" t="s">
+        <v>169</v>
+      </c>
+      <c r="P59" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q59" s="25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>